--- a/models/ATT2ITM/restaurants/gijon/544d98b3ba0a0dfd7e3f0019f4d9675e/att_text.xlsx
+++ b/models/ATT2ITM/restaurants/gijon/544d98b3ba0a0dfd7e3f0019f4d9675e/att_text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
   <si>
     <t>text</t>
   </si>
@@ -469,6 +469,15 @@
     <t>querer</t>
   </si>
   <si>
+    <t>comer</t>
+  </si>
+  <si>
+    <t>uno</t>
+  </si>
+  <si>
+    <t>buen</t>
+  </si>
+  <si>
     <t>arroz</t>
   </si>
   <si>
@@ -481,7 +490,10 @@
     <t>y</t>
   </si>
   <si>
-    <t>nutella</t>
+    <t>buena</t>
+  </si>
+  <si>
+    <t>vista</t>
   </si>
 </sst>
 </file>
@@ -839,13 +851,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -864,8 +876,23 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,8 +914,23 @@
       <c r="G2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -896,22 +938,37 @@
         <v>-0.0302426852285862</v>
       </c>
       <c r="C3">
+        <v>-0.09207200258970261</v>
+      </c>
+      <c r="D3">
+        <v>-0.002923544961959124</v>
+      </c>
+      <c r="E3">
+        <v>-0.1251846104860306</v>
+      </c>
+      <c r="F3">
         <v>-0.07984059303998947</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>-0.03561795130372047</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>-0.4798963069915771</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>-0.01733722724020481</v>
       </c>
-      <c r="G3">
-        <v>-0.1680147796869278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="J3">
+        <v>-0.03561795130372047</v>
+      </c>
+      <c r="K3">
+        <v>-0.0796881765127182</v>
+      </c>
+      <c r="L3">
+        <v>0.1588388383388519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -919,22 +976,37 @@
         <v>0.02009420841932297</v>
       </c>
       <c r="C4">
+        <v>-0.09757383912801743</v>
+      </c>
+      <c r="D4">
+        <v>7.611684850417078E-05</v>
+      </c>
+      <c r="E4">
+        <v>-0.1237826719880104</v>
+      </c>
+      <c r="F4">
         <v>-0.0491945743560791</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>-0.008102457039058208</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>-0.4265921115875244</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>-0.06156883388757706</v>
       </c>
-      <c r="G4">
-        <v>-0.1661638766527176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="J4">
+        <v>-0.008102457039058208</v>
+      </c>
+      <c r="K4">
+        <v>-0.07311627268791199</v>
+      </c>
+      <c r="L4">
+        <v>-0.3080604672431946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -942,22 +1014,37 @@
         <v>-0.009646983817219734</v>
       </c>
       <c r="C5">
+        <v>-0.07531575113534927</v>
+      </c>
+      <c r="D5">
+        <v>-0.03228556737303734</v>
+      </c>
+      <c r="E5">
+        <v>-0.16604283452034</v>
+      </c>
+      <c r="F5">
         <v>-0.03530031442642212</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>-0.01186793018132448</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>-0.5507708191871643</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>-0.05130404978990555</v>
       </c>
-      <c r="G5">
-        <v>-0.3520409762859344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="J5">
+        <v>-0.01186793018132448</v>
+      </c>
+      <c r="K5">
+        <v>-0.08837825804948807</v>
+      </c>
+      <c r="L5">
+        <v>-0.06456916034221649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,22 +1052,37 @@
         <v>-0.1102536991238594</v>
       </c>
       <c r="C6">
+        <v>-0.06383076310157776</v>
+      </c>
+      <c r="D6">
+        <v>-0.04303909838199615</v>
+      </c>
+      <c r="E6">
+        <v>-0.2029058337211609</v>
+      </c>
+      <c r="F6">
         <v>-0.267469584941864</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>-0.06882845610380173</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>-0.469919353723526</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>-0.05076327547430992</v>
       </c>
-      <c r="G6">
-        <v>0.01949341967701912</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="J6">
+        <v>-0.06882845610380173</v>
+      </c>
+      <c r="K6">
+        <v>-0.1552188843488693</v>
+      </c>
+      <c r="L6">
+        <v>0.2563209533691406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -988,22 +1090,37 @@
         <v>-0.02950912155210972</v>
       </c>
       <c r="C7">
+        <v>-0.09238182008266449</v>
+      </c>
+      <c r="D7">
+        <v>-0.0258724968880415</v>
+      </c>
+      <c r="E7">
+        <v>-0.1549772620201111</v>
+      </c>
+      <c r="F7">
         <v>0.04784185066819191</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>-0.03297334909439087</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>-0.4826917350292206</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>-0.06696538627147675</v>
       </c>
-      <c r="G7">
-        <v>-0.4926162362098694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="J7">
+        <v>-0.03297334909439087</v>
+      </c>
+      <c r="K7">
+        <v>-0.177928164601326</v>
+      </c>
+      <c r="L7">
+        <v>-0.5260647535324097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1011,22 +1128,37 @@
         <v>0.05055427551269531</v>
       </c>
       <c r="C8">
+        <v>-0.08590315282344818</v>
+      </c>
+      <c r="D8">
+        <v>-0.01258930843323469</v>
+      </c>
+      <c r="E8">
+        <v>-0.1578557938337326</v>
+      </c>
+      <c r="F8">
         <v>-0.005477002821862698</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>-0.08263778686523438</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>0.158277153968811</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>-0.06660647690296173</v>
       </c>
-      <c r="G8">
-        <v>-0.02251684665679932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="J8">
+        <v>-0.08263778686523438</v>
+      </c>
+      <c r="K8">
+        <v>-0.2011741548776627</v>
+      </c>
+      <c r="L8">
+        <v>-0.7358623743057251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1034,22 +1166,37 @@
         <v>-0.05516531690955162</v>
       </c>
       <c r="C9">
+        <v>-0.09637372940778732</v>
+      </c>
+      <c r="D9">
+        <v>-0.03654228150844574</v>
+      </c>
+      <c r="E9">
+        <v>-0.135694608092308</v>
+      </c>
+      <c r="F9">
         <v>-0.1280398666858673</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>0.02022738568484783</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>-0.6691024303436279</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>-0.03671965748071671</v>
       </c>
-      <c r="G9">
-        <v>-0.1873767077922821</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="J9">
+        <v>0.02022738568484783</v>
+      </c>
+      <c r="K9">
+        <v>-0.2776216864585876</v>
+      </c>
+      <c r="L9">
+        <v>-0.618097186088562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1057,22 +1204,37 @@
         <v>-0.0423537939786911</v>
       </c>
       <c r="C10">
+        <v>-0.07185142487287521</v>
+      </c>
+      <c r="D10">
+        <v>-0.01508021168410778</v>
+      </c>
+      <c r="E10">
+        <v>-0.176631361246109</v>
+      </c>
+      <c r="F10">
         <v>-0.08295848965644836</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>-0.03231585770845413</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>-0.2115811109542847</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>-0.03636089339852333</v>
       </c>
-      <c r="G10">
-        <v>-0.643200159072876</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="J10">
+        <v>-0.03231585770845413</v>
+      </c>
+      <c r="K10">
+        <v>-0.1770203858613968</v>
+      </c>
+      <c r="L10">
+        <v>-0.2766514420509338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1080,22 +1242,37 @@
         <v>-0.07405886054039001</v>
       </c>
       <c r="C11">
+        <v>-0.07879828661680222</v>
+      </c>
+      <c r="D11">
+        <v>-0.02723987400531769</v>
+      </c>
+      <c r="E11">
+        <v>-0.1416773051023483</v>
+      </c>
+      <c r="F11">
         <v>-0.08835388720035553</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>-0.03847859427332878</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>-0.808363139629364</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>-0.04719328507781029</v>
       </c>
-      <c r="G11">
-        <v>-0.2813877761363983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="J11">
+        <v>-0.03847859427332878</v>
+      </c>
+      <c r="K11">
+        <v>-0.1095199510455132</v>
+      </c>
+      <c r="L11">
+        <v>-0.08014369010925293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,22 +1280,37 @@
         <v>-0.05436744913458824</v>
       </c>
       <c r="C12">
+        <v>-0.1309249699115753</v>
+      </c>
+      <c r="D12">
+        <v>-0.04411008208990097</v>
+      </c>
+      <c r="E12">
+        <v>-0.1456204801797867</v>
+      </c>
+      <c r="F12">
         <v>-0.02437713369727135</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>-0.01496224291622639</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>-0.07072531431913376</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>-0.03153131529688835</v>
       </c>
-      <c r="G12">
-        <v>-0.4388421475887299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="J12">
+        <v>-0.01496224291622639</v>
+      </c>
+      <c r="K12">
+        <v>-0.09307698160409927</v>
+      </c>
+      <c r="L12">
+        <v>-0.2160602509975433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1126,22 +1318,37 @@
         <v>0.09569299221038818</v>
       </c>
       <c r="C13">
+        <v>-0.1541498005390167</v>
+      </c>
+      <c r="D13">
+        <v>-0.008249847218394279</v>
+      </c>
+      <c r="E13">
+        <v>-0.1649197787046432</v>
+      </c>
+      <c r="F13">
         <v>-0.3779977560043335</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>-0.07631133496761322</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>-0.7477185726165771</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>-0.0648423433303833</v>
       </c>
-      <c r="G13">
-        <v>0.2063127160072327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="J13">
+        <v>-0.07631133496761322</v>
+      </c>
+      <c r="K13">
+        <v>-0.007615305949002504</v>
+      </c>
+      <c r="L13">
+        <v>-0.1182147115468979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1149,22 +1356,37 @@
         <v>-0.08601407706737518</v>
       </c>
       <c r="C14">
+        <v>-0.06031424179673195</v>
+      </c>
+      <c r="D14">
+        <v>-0.02912131138145924</v>
+      </c>
+      <c r="E14">
+        <v>-0.1932011693716049</v>
+      </c>
+      <c r="F14">
         <v>-0.07967928051948547</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>-0.05792856216430664</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>-0.4558834135532379</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>-0.04316150769591331</v>
       </c>
-      <c r="G14">
-        <v>-0.215570792555809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="J14">
+        <v>-0.05792856216430664</v>
+      </c>
+      <c r="K14">
+        <v>-0.01460963301360607</v>
+      </c>
+      <c r="L14">
+        <v>0.3984293341636658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1172,22 +1394,37 @@
         <v>0.008168578147888184</v>
       </c>
       <c r="C15">
+        <v>-0.1035875156521797</v>
+      </c>
+      <c r="D15">
+        <v>0.003618118586018682</v>
+      </c>
+      <c r="E15">
+        <v>-0.09358174353837967</v>
+      </c>
+      <c r="F15">
         <v>-0.00171832530759275</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>-0.01906522922217846</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>0.0334784984588623</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>-0.04554967954754829</v>
       </c>
-      <c r="G15">
-        <v>-0.4000527262687683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="J15">
+        <v>-0.01906522922217846</v>
+      </c>
+      <c r="K15">
+        <v>-0.152018278837204</v>
+      </c>
+      <c r="L15">
+        <v>-0.5891258120536804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1195,22 +1432,37 @@
         <v>0.01948302239179611</v>
       </c>
       <c r="C16">
+        <v>-0.1113766357302666</v>
+      </c>
+      <c r="D16">
+        <v>-0.02574779279530048</v>
+      </c>
+      <c r="E16">
+        <v>-0.1672449856996536</v>
+      </c>
+      <c r="F16">
         <v>-0.186158612370491</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>-0.0548652671277523</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>-0.8146445155143738</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>-0.0361635647714138</v>
       </c>
-      <c r="G16">
-        <v>-0.2117910832166672</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16">
+        <v>-0.0548652671277523</v>
+      </c>
+      <c r="K16">
+        <v>-0.007151173427700996</v>
+      </c>
+      <c r="L16">
+        <v>0.169966071844101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1218,22 +1470,37 @@
         <v>-0.0276058092713356</v>
       </c>
       <c r="C17">
+        <v>-0.1175570040941238</v>
+      </c>
+      <c r="D17">
+        <v>-0.016130231320858</v>
+      </c>
+      <c r="E17">
+        <v>-0.1399794816970825</v>
+      </c>
+      <c r="F17">
         <v>-0.1564191579818726</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>-0.08414760231971741</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>-0.07808525115251541</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>-0.03372781723737717</v>
       </c>
-      <c r="G17">
-        <v>-0.08462288230657578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="J17">
+        <v>-0.08414760231971741</v>
+      </c>
+      <c r="K17">
+        <v>-0.08374402672052383</v>
+      </c>
+      <c r="L17">
+        <v>-0.20954629778862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1241,22 +1508,37 @@
         <v>0.08612655848264694</v>
       </c>
       <c r="C18">
+        <v>-0.1260084807872772</v>
+      </c>
+      <c r="D18">
+        <v>-0.005713004153221846</v>
+      </c>
+      <c r="E18">
+        <v>-0.216224730014801</v>
+      </c>
+      <c r="F18">
         <v>-0.1093188300728798</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <v>-0.04547694325447083</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>-0.4782505929470062</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>-0.06679742038249969</v>
       </c>
-      <c r="G18">
-        <v>0.02969761751592159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="J18">
+        <v>-0.04547694325447083</v>
+      </c>
+      <c r="K18">
+        <v>-0.04256885498762131</v>
+      </c>
+      <c r="L18">
+        <v>0.196501836180687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1264,22 +1546,37 @@
         <v>-0.02615910395979881</v>
       </c>
       <c r="C19">
+        <v>-0.07724688947200775</v>
+      </c>
+      <c r="D19">
+        <v>0.01754458621144295</v>
+      </c>
+      <c r="E19">
+        <v>-0.1238576024770737</v>
+      </c>
+      <c r="F19">
         <v>0.08693079650402069</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>-0.04253173992037773</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>0.3014199137687683</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>-0.05078909546136856</v>
       </c>
-      <c r="G19">
-        <v>-0.4785982370376587</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="J19">
+        <v>-0.04253173992037773</v>
+      </c>
+      <c r="K19">
+        <v>0.009332862682640553</v>
+      </c>
+      <c r="L19">
+        <v>0.2822149395942688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1287,22 +1584,37 @@
         <v>-0.06012595817446709</v>
       </c>
       <c r="C20">
+        <v>-0.14715775847435</v>
+      </c>
+      <c r="D20">
+        <v>-0.0110873868688941</v>
+      </c>
+      <c r="E20">
+        <v>-0.11494230479002</v>
+      </c>
+      <c r="F20">
         <v>-0.2232786118984222</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <v>0.00458433898165822</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>-0.2935277223587036</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>-0.03741789236664772</v>
       </c>
-      <c r="G20">
-        <v>-0.4272339940071106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="J20">
+        <v>0.00458433898165822</v>
+      </c>
+      <c r="K20">
+        <v>-0.04649439081549644</v>
+      </c>
+      <c r="L20">
+        <v>0.2383041381835938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1310,22 +1622,37 @@
         <v>0.01573288440704346</v>
       </c>
       <c r="C21">
+        <v>-0.1121061518788338</v>
+      </c>
+      <c r="D21">
+        <v>0.001283557969145477</v>
+      </c>
+      <c r="E21">
+        <v>-0.1699763685464859</v>
+      </c>
+      <c r="F21">
         <v>-0.1361938267946243</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <v>-0.0835762619972229</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>-0.2160166800022125</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>-0.04647171869874001</v>
       </c>
-      <c r="G21">
-        <v>-0.2931630313396454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="J21">
+        <v>-0.0835762619972229</v>
+      </c>
+      <c r="K21">
+        <v>-0.08296915143728256</v>
+      </c>
+      <c r="L21">
+        <v>-0.4950615167617798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1333,22 +1660,37 @@
         <v>-0.09224522113800049</v>
       </c>
       <c r="C22">
+        <v>-0.04270662367343903</v>
+      </c>
+      <c r="D22">
+        <v>-0.01731159351766109</v>
+      </c>
+      <c r="E22">
+        <v>-0.1756668537855148</v>
+      </c>
+      <c r="F22">
         <v>-0.151100680232048</v>
       </c>
-      <c r="D22">
+      <c r="G22">
         <v>-0.03249675035476685</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>-0.6210118532180786</v>
       </c>
-      <c r="F22">
+      <c r="I22">
         <v>-0.05230062454938889</v>
       </c>
-      <c r="G22">
-        <v>-0.6116698384284973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="J22">
+        <v>-0.03249675035476685</v>
+      </c>
+      <c r="K22">
+        <v>-0.1863257735967636</v>
+      </c>
+      <c r="L22">
+        <v>-0.4558897614479065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1356,22 +1698,37 @@
         <v>0.01221926789730787</v>
       </c>
       <c r="C23">
+        <v>-0.05834567174315453</v>
+      </c>
+      <c r="D23">
+        <v>0.003004525089636445</v>
+      </c>
+      <c r="E23">
+        <v>-0.1608469933271408</v>
+      </c>
+      <c r="F23">
         <v>0.01492276135832071</v>
       </c>
-      <c r="D23">
+      <c r="G23">
         <v>-0.01100443862378597</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>-0.3766234517097473</v>
       </c>
-      <c r="F23">
+      <c r="I23">
         <v>-0.03991298750042915</v>
       </c>
-      <c r="G23">
-        <v>-0.5353337526321411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="J23">
+        <v>-0.01100443862378597</v>
+      </c>
+      <c r="K23">
+        <v>-0.072066530585289</v>
+      </c>
+      <c r="L23">
+        <v>-0.1659722328186035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1379,22 +1736,37 @@
         <v>-0.1155784651637077</v>
       </c>
       <c r="C24">
+        <v>-0.1075868383049965</v>
+      </c>
+      <c r="D24">
+        <v>-0.006947199814021587</v>
+      </c>
+      <c r="E24">
+        <v>-0.1897005885839462</v>
+      </c>
+      <c r="F24">
         <v>-0.07564732432365417</v>
       </c>
-      <c r="D24">
+      <c r="G24">
         <v>0.002576953498646617</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>0.05896145105361938</v>
       </c>
-      <c r="F24">
+      <c r="I24">
         <v>-0.06226452812552452</v>
       </c>
-      <c r="G24">
-        <v>-0.1470314711332321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="J24">
+        <v>0.002576953498646617</v>
+      </c>
+      <c r="K24">
+        <v>-0.05423277616500854</v>
+      </c>
+      <c r="L24">
+        <v>0.4669791460037231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1402,22 +1774,37 @@
         <v>-0.02211721614003181</v>
       </c>
       <c r="C25">
+        <v>-0.03833398967981339</v>
+      </c>
+      <c r="D25">
+        <v>-0.03800378367304802</v>
+      </c>
+      <c r="E25">
+        <v>-0.1727175861597061</v>
+      </c>
+      <c r="F25">
         <v>-0.09305474907159805</v>
       </c>
-      <c r="D25">
+      <c r="G25">
         <v>-0.03069509752094746</v>
       </c>
-      <c r="E25">
+      <c r="H25">
         <v>-0.4224436283111572</v>
       </c>
-      <c r="F25">
+      <c r="I25">
         <v>-0.05675553902983665</v>
       </c>
-      <c r="G25">
-        <v>-0.1536150276660919</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="J25">
+        <v>-0.03069509752094746</v>
+      </c>
+      <c r="K25">
+        <v>-0.01955503970384598</v>
+      </c>
+      <c r="L25">
+        <v>0.5076682567596436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,22 +1812,37 @@
         <v>-0.1267982572317123</v>
       </c>
       <c r="C26">
+        <v>-0.136373370885849</v>
+      </c>
+      <c r="D26">
+        <v>-0.03258850052952766</v>
+      </c>
+      <c r="E26">
+        <v>-0.1769742667675018</v>
+      </c>
+      <c r="F26">
         <v>0.09591332823038101</v>
       </c>
-      <c r="D26">
+      <c r="G26">
         <v>-0.02929786406457424</v>
       </c>
-      <c r="E26">
+      <c r="H26">
         <v>0.04215830937027931</v>
       </c>
-      <c r="F26">
+      <c r="I26">
         <v>-0.07949412614107132</v>
       </c>
-      <c r="G26">
-        <v>-0.8580228090286255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="J26">
+        <v>-0.02929786406457424</v>
+      </c>
+      <c r="K26">
+        <v>-0.1201389655470848</v>
+      </c>
+      <c r="L26">
+        <v>-0.5998725891113281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1448,22 +1850,37 @@
         <v>-0.1330981999635696</v>
       </c>
       <c r="C27">
+        <v>-0.08498965948820114</v>
+      </c>
+      <c r="D27">
+        <v>-0.02695214375853539</v>
+      </c>
+      <c r="E27">
+        <v>-0.1857334673404694</v>
+      </c>
+      <c r="F27">
         <v>-0.3508403599262238</v>
       </c>
-      <c r="D27">
+      <c r="G27">
         <v>-0.09432816505432129</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>-0.7422224283218384</v>
       </c>
-      <c r="F27">
+      <c r="I27">
         <v>-0.03124344162642956</v>
       </c>
-      <c r="G27">
-        <v>-0.3500933945178986</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="J27">
+        <v>-0.09432816505432129</v>
+      </c>
+      <c r="K27">
+        <v>-0.3223331868648529</v>
+      </c>
+      <c r="L27">
+        <v>-0.3487241566181183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1471,22 +1888,37 @@
         <v>-0.127736434340477</v>
       </c>
       <c r="C28">
+        <v>-0.1117906495928764</v>
+      </c>
+      <c r="D28">
+        <v>-0.04863053932785988</v>
+      </c>
+      <c r="E28">
+        <v>-0.1299671679735184</v>
+      </c>
+      <c r="F28">
         <v>-0.2359300702810287</v>
       </c>
-      <c r="D28">
+      <c r="G28">
         <v>-0.06721439957618713</v>
       </c>
-      <c r="E28">
+      <c r="H28">
         <v>-0.591908872127533</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>-0.06979841738939285</v>
       </c>
-      <c r="G28">
-        <v>-0.3865072131156921</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="J28">
+        <v>-0.06721439957618713</v>
+      </c>
+      <c r="K28">
+        <v>-0.06895490735769272</v>
+      </c>
+      <c r="L28">
+        <v>0.1265771389007568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1494,22 +1926,37 @@
         <v>0.0594264529645443</v>
       </c>
       <c r="C29">
+        <v>-0.09159398078918457</v>
+      </c>
+      <c r="D29">
+        <v>-0.01593036204576492</v>
+      </c>
+      <c r="E29">
+        <v>-0.1667350381612778</v>
+      </c>
+      <c r="F29">
         <v>0.04856204986572266</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <v>-0.09314795583486557</v>
       </c>
-      <c r="E29">
+      <c r="H29">
         <v>-0.04738983511924744</v>
       </c>
-      <c r="F29">
+      <c r="I29">
         <v>-0.05935201048851013</v>
       </c>
-      <c r="G29">
-        <v>-0.09456009417772293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="J29">
+        <v>-0.09314795583486557</v>
+      </c>
+      <c r="K29">
+        <v>-0.07982382923364639</v>
+      </c>
+      <c r="L29">
+        <v>-0.2537930905818939</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1517,22 +1964,37 @@
         <v>-0.05292122066020966</v>
       </c>
       <c r="C30">
+        <v>-0.1644318103790283</v>
+      </c>
+      <c r="D30">
+        <v>-0.02559667080640793</v>
+      </c>
+      <c r="E30">
+        <v>-0.1509387493133545</v>
+      </c>
+      <c r="F30">
         <v>-0.2233282029628754</v>
       </c>
-      <c r="D30">
+      <c r="G30">
         <v>-0.005766930058598518</v>
       </c>
-      <c r="E30">
+      <c r="H30">
         <v>-0.8368679881095886</v>
       </c>
-      <c r="F30">
+      <c r="I30">
         <v>-0.07570734620094299</v>
       </c>
-      <c r="G30">
-        <v>-0.1651240885257721</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="J30">
+        <v>-0.005766930058598518</v>
+      </c>
+      <c r="K30">
+        <v>-0.1031715720891953</v>
+      </c>
+      <c r="L30">
+        <v>-0.3081316649913788</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1540,22 +2002,37 @@
         <v>0.0505947507917881</v>
       </c>
       <c r="C31">
+        <v>-0.04622376710176468</v>
+      </c>
+      <c r="D31">
+        <v>-0.008889690041542053</v>
+      </c>
+      <c r="E31">
+        <v>-0.1865186095237732</v>
+      </c>
+      <c r="F31">
         <v>0.1072699055075645</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <v>-0.01632432453334332</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>-0.4492266476154327</v>
       </c>
-      <c r="F31">
+      <c r="I31">
         <v>-0.0598311573266983</v>
       </c>
-      <c r="G31">
-        <v>-0.632673442363739</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="J31">
+        <v>-0.01632432453334332</v>
+      </c>
+      <c r="K31">
+        <v>-0.1394844353199005</v>
+      </c>
+      <c r="L31">
+        <v>-0.5635737776756287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1563,22 +2040,37 @@
         <v>-0.001350688398815691</v>
       </c>
       <c r="C32">
+        <v>-0.04223677143454552</v>
+      </c>
+      <c r="D32">
+        <v>-0.01622075960040092</v>
+      </c>
+      <c r="E32">
+        <v>-0.08960790932178497</v>
+      </c>
+      <c r="F32">
         <v>-0.05846540629863739</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <v>-0.03235705941915512</v>
       </c>
-      <c r="E32">
+      <c r="H32">
         <v>-0.02960088476538658</v>
       </c>
-      <c r="F32">
+      <c r="I32">
         <v>-0.01585731282830238</v>
       </c>
-      <c r="G32">
-        <v>-0.02121519297361374</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="J32">
+        <v>-0.03235705941915512</v>
+      </c>
+      <c r="K32">
+        <v>-0.1537885814905167</v>
+      </c>
+      <c r="L32">
+        <v>-0.5679492950439453</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1586,22 +2078,37 @@
         <v>0.03267704695463181</v>
       </c>
       <c r="C33">
+        <v>-0.1226422265172005</v>
+      </c>
+      <c r="D33">
+        <v>-0.03257259353995323</v>
+      </c>
+      <c r="E33">
+        <v>-0.184117391705513</v>
+      </c>
+      <c r="F33">
         <v>-0.3209160268306732</v>
       </c>
-      <c r="D33">
+      <c r="G33">
         <v>-0.07774592936038971</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>-0.5845933556556702</v>
       </c>
-      <c r="F33">
+      <c r="I33">
         <v>-0.05098665878176689</v>
       </c>
-      <c r="G33">
-        <v>-0.3727923333644867</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="J33">
+        <v>-0.07774592936038971</v>
+      </c>
+      <c r="K33">
+        <v>-0.0678810179233551</v>
+      </c>
+      <c r="L33">
+        <v>-0.2860405445098877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1609,22 +2116,37 @@
         <v>-0.02942245826125145</v>
       </c>
       <c r="C34">
+        <v>-0.1138701289892197</v>
+      </c>
+      <c r="D34">
+        <v>-0.008087105117738247</v>
+      </c>
+      <c r="E34">
+        <v>-0.2115395218133926</v>
+      </c>
+      <c r="F34">
         <v>0.1107473596930504</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <v>0.01064496766775846</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>-0.3410550057888031</v>
       </c>
-      <c r="F34">
+      <c r="I34">
         <v>-0.04406071081757545</v>
       </c>
-      <c r="G34">
-        <v>-0.3065782785415649</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="J34">
+        <v>0.01064496766775846</v>
+      </c>
+      <c r="K34">
+        <v>-0.1650908887386322</v>
+      </c>
+      <c r="L34">
+        <v>0.1819454580545425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1632,22 +2154,37 @@
         <v>-0.01928217336535454</v>
       </c>
       <c r="C35">
+        <v>-0.1498536467552185</v>
+      </c>
+      <c r="D35">
+        <v>-0.009883640334010124</v>
+      </c>
+      <c r="E35">
+        <v>-0.188118115067482</v>
+      </c>
+      <c r="F35">
         <v>-0.01308044232428074</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <v>-0.01596304215490818</v>
       </c>
-      <c r="E35">
+      <c r="H35">
         <v>0.2569856345653534</v>
       </c>
-      <c r="F35">
+      <c r="I35">
         <v>-0.04281335696578026</v>
       </c>
-      <c r="G35">
-        <v>-0.003275200724601746</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="J35">
+        <v>-0.01596304215490818</v>
+      </c>
+      <c r="K35">
+        <v>-0.1043935939669609</v>
+      </c>
+      <c r="L35">
+        <v>-0.155856117606163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1655,22 +2192,37 @@
         <v>-0.02101927623152733</v>
       </c>
       <c r="C36">
+        <v>-0.1778489649295807</v>
+      </c>
+      <c r="D36">
+        <v>0.01077977381646633</v>
+      </c>
+      <c r="E36">
+        <v>-0.1687797904014587</v>
+      </c>
+      <c r="F36">
         <v>-0.3071584701538086</v>
       </c>
-      <c r="D36">
+      <c r="G36">
         <v>-0.006514582317322493</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>-0.8863479495048523</v>
       </c>
-      <c r="F36">
+      <c r="I36">
         <v>-0.0464080348610878</v>
       </c>
-      <c r="G36">
-        <v>0.08747667819261551</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="J36">
+        <v>-0.006514582317322493</v>
+      </c>
+      <c r="K36">
+        <v>-0.1542213410139084</v>
+      </c>
+      <c r="L36">
+        <v>-0.6974590420722961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1678,22 +2230,37 @@
         <v>-0.1066254079341888</v>
       </c>
       <c r="C37">
+        <v>-0.2280347794294357</v>
+      </c>
+      <c r="D37">
+        <v>-0.01159358955919743</v>
+      </c>
+      <c r="E37">
+        <v>-0.1935871541500092</v>
+      </c>
+      <c r="F37">
         <v>-0.2809804081916809</v>
       </c>
-      <c r="D37">
+      <c r="G37">
         <v>-0.02956243790686131</v>
       </c>
-      <c r="E37">
+      <c r="H37">
         <v>-0.8903318047523499</v>
       </c>
-      <c r="F37">
+      <c r="I37">
         <v>-0.03163678571581841</v>
       </c>
-      <c r="G37">
-        <v>-0.1820891946554184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="J37">
+        <v>-0.02956243790686131</v>
+      </c>
+      <c r="K37">
+        <v>-0.2202401906251907</v>
+      </c>
+      <c r="L37">
+        <v>-0.2642390131950378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1701,22 +2268,37 @@
         <v>0.1073554307222366</v>
       </c>
       <c r="C38">
+        <v>-0.095365971326828</v>
+      </c>
+      <c r="D38">
+        <v>-0.02632034383714199</v>
+      </c>
+      <c r="E38">
+        <v>-0.197214350104332</v>
+      </c>
+      <c r="F38">
         <v>0.1146982684731483</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <v>-0.01697927713394165</v>
       </c>
-      <c r="E38">
+      <c r="H38">
         <v>0.07418980449438095</v>
       </c>
-      <c r="F38">
+      <c r="I38">
         <v>-0.04299407079815865</v>
       </c>
-      <c r="G38">
-        <v>0.2302642315626144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="J38">
+        <v>-0.01697927713394165</v>
+      </c>
+      <c r="K38">
+        <v>-0.08438962697982788</v>
+      </c>
+      <c r="L38">
+        <v>-0.4241797924041748</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1724,22 +2306,37 @@
         <v>-0.02783050760626793</v>
       </c>
       <c r="C39">
+        <v>-0.1321939677000046</v>
+      </c>
+      <c r="D39">
+        <v>-0.009536474011838436</v>
+      </c>
+      <c r="E39">
+        <v>-0.2430320382118225</v>
+      </c>
+      <c r="F39">
         <v>0.0373830609023571</v>
       </c>
-      <c r="D39">
+      <c r="G39">
         <v>-0.02561943978071213</v>
       </c>
-      <c r="E39">
+      <c r="H39">
         <v>0.03356508910655975</v>
       </c>
-      <c r="F39">
+      <c r="I39">
         <v>-0.03892713040113449</v>
       </c>
-      <c r="G39">
-        <v>-0.09582189470529556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="J39">
+        <v>-0.02561943978071213</v>
+      </c>
+      <c r="K39">
+        <v>-0.2088209390640259</v>
+      </c>
+      <c r="L39">
+        <v>-0.1859048902988434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1747,22 +2344,37 @@
         <v>-0.09754698723554611</v>
       </c>
       <c r="C40">
+        <v>-0.08159393817186356</v>
+      </c>
+      <c r="D40">
+        <v>-0.05366283282637596</v>
+      </c>
+      <c r="E40">
+        <v>-0.1435442864894867</v>
+      </c>
+      <c r="F40">
         <v>-0.1073571220040321</v>
       </c>
-      <c r="D40">
+      <c r="G40">
         <v>-0.03707330673933029</v>
       </c>
-      <c r="E40">
+      <c r="H40">
         <v>-0.2185399681329727</v>
       </c>
-      <c r="F40">
+      <c r="I40">
         <v>-0.05295621231198311</v>
       </c>
-      <c r="G40">
-        <v>-0.4807063043117523</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="J40">
+        <v>-0.03707330673933029</v>
+      </c>
+      <c r="K40">
+        <v>-0.06428786367177963</v>
+      </c>
+      <c r="L40">
+        <v>-0.3539537787437439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1770,22 +2382,37 @@
         <v>0.03323707729578018</v>
       </c>
       <c r="C41">
+        <v>-0.06653112918138504</v>
+      </c>
+      <c r="D41">
+        <v>-0.02139393985271454</v>
+      </c>
+      <c r="E41">
+        <v>-0.09379656612873077</v>
+      </c>
+      <c r="F41">
         <v>-0.1266415864229202</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <v>-0.008314201608300209</v>
       </c>
-      <c r="E41">
+      <c r="H41">
         <v>-0.4833157062530518</v>
       </c>
-      <c r="F41">
+      <c r="I41">
         <v>-0.02199064940214157</v>
       </c>
-      <c r="G41">
-        <v>-0.6624924540519714</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="J41">
+        <v>-0.008314201608300209</v>
+      </c>
+      <c r="K41">
+        <v>-0.05776217952370644</v>
+      </c>
+      <c r="L41">
+        <v>-0.471309632062912</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1793,22 +2420,37 @@
         <v>-0.01966366916894913</v>
       </c>
       <c r="C42">
+        <v>-0.06083975359797478</v>
+      </c>
+      <c r="D42">
+        <v>-0.02386987954378128</v>
+      </c>
+      <c r="E42">
+        <v>-0.1332782506942749</v>
+      </c>
+      <c r="F42">
         <v>-0.07814948260784149</v>
       </c>
-      <c r="D42">
+      <c r="G42">
         <v>-0.07217346876859665</v>
       </c>
-      <c r="E42">
+      <c r="H42">
         <v>-0.332936018705368</v>
       </c>
-      <c r="F42">
+      <c r="I42">
         <v>-0.03688929975032806</v>
       </c>
-      <c r="G42">
-        <v>-0.09090690314769745</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="J42">
+        <v>-0.07217346876859665</v>
+      </c>
+      <c r="K42">
+        <v>-0.143614649772644</v>
+      </c>
+      <c r="L42">
+        <v>-0.3229314088821411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1816,22 +2458,37 @@
         <v>0.02262284234166145</v>
       </c>
       <c r="C43">
+        <v>-0.03418024256825447</v>
+      </c>
+      <c r="D43">
+        <v>-0.03227467462420464</v>
+      </c>
+      <c r="E43">
+        <v>-0.09566391259431839</v>
+      </c>
+      <c r="F43">
         <v>-0.1492354422807693</v>
       </c>
-      <c r="D43">
+      <c r="G43">
         <v>-0.006537929642945528</v>
       </c>
-      <c r="E43">
+      <c r="H43">
         <v>-0.4717743098735809</v>
       </c>
-      <c r="F43">
+      <c r="I43">
         <v>-0.02604587562382221</v>
       </c>
-      <c r="G43">
-        <v>-0.432220995426178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="J43">
+        <v>-0.006537929642945528</v>
+      </c>
+      <c r="K43">
+        <v>-0.1773873269557953</v>
+      </c>
+      <c r="L43">
+        <v>-0.1404811143875122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1839,22 +2496,37 @@
         <v>-0.01056904066354036</v>
       </c>
       <c r="C44">
+        <v>-0.09906633198261261</v>
+      </c>
+      <c r="D44">
+        <v>-0.0179575253278017</v>
+      </c>
+      <c r="E44">
+        <v>-0.1143446415662766</v>
+      </c>
+      <c r="F44">
         <v>-0.120073214173317</v>
       </c>
-      <c r="D44">
+      <c r="G44">
         <v>-0.0444200336933136</v>
       </c>
-      <c r="E44">
+      <c r="H44">
         <v>-0.4403838217258453</v>
       </c>
-      <c r="F44">
+      <c r="I44">
         <v>-0.05663445964455605</v>
       </c>
-      <c r="G44">
-        <v>-0.172668993473053</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="J44">
+        <v>-0.0444200336933136</v>
+      </c>
+      <c r="K44">
+        <v>-0.1380832940340042</v>
+      </c>
+      <c r="L44">
+        <v>-0.5325177311897278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,22 +2534,37 @@
         <v>-0.03104642406105995</v>
       </c>
       <c r="C45">
+        <v>-0.0337565690279007</v>
+      </c>
+      <c r="D45">
+        <v>-0.0185618344694376</v>
+      </c>
+      <c r="E45">
+        <v>-0.2218713015317917</v>
+      </c>
+      <c r="F45">
         <v>-0.0009950271341949701</v>
       </c>
-      <c r="D45">
+      <c r="G45">
         <v>-0.03824302181601524</v>
       </c>
-      <c r="E45">
+      <c r="H45">
         <v>-0.3010492920875549</v>
       </c>
-      <c r="F45">
+      <c r="I45">
         <v>-0.06119000911712646</v>
       </c>
-      <c r="G45">
-        <v>-0.003417509142309427</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="J45">
+        <v>-0.03824302181601524</v>
+      </c>
+      <c r="K45">
+        <v>-0.1664480417966843</v>
+      </c>
+      <c r="L45">
+        <v>-0.1638718992471695</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1885,22 +2572,37 @@
         <v>-0.217179536819458</v>
       </c>
       <c r="C46">
+        <v>-0.08895736932754517</v>
+      </c>
+      <c r="D46">
+        <v>-0.05483710393309593</v>
+      </c>
+      <c r="E46">
+        <v>-0.1943971961736679</v>
+      </c>
+      <c r="F46">
         <v>-0.224693551659584</v>
       </c>
-      <c r="D46">
+      <c r="G46">
         <v>-0.0182853490114212</v>
       </c>
-      <c r="E46">
+      <c r="H46">
         <v>-0.4143630862236023</v>
       </c>
-      <c r="F46">
+      <c r="I46">
         <v>-0.04120244085788727</v>
       </c>
-      <c r="G46">
-        <v>-0.5995801687240601</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="J46">
+        <v>-0.0182853490114212</v>
+      </c>
+      <c r="K46">
+        <v>-0.2545092105865479</v>
+      </c>
+      <c r="L46">
+        <v>-0.5541665554046631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1908,22 +2610,37 @@
         <v>-0.0426943376660347</v>
       </c>
       <c r="C47">
+        <v>-0.0882636085152626</v>
+      </c>
+      <c r="D47">
+        <v>-0.0306882206350565</v>
+      </c>
+      <c r="E47">
+        <v>-0.1957641243934631</v>
+      </c>
+      <c r="F47">
         <v>-0.1895644813776016</v>
       </c>
-      <c r="D47">
+      <c r="G47">
         <v>-0.001268630032427609</v>
       </c>
-      <c r="E47">
+      <c r="H47">
         <v>-0.5428495407104492</v>
       </c>
-      <c r="F47">
+      <c r="I47">
         <v>-0.02277924120426178</v>
       </c>
-      <c r="G47">
-        <v>-0.2019954472780228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="J47">
+        <v>-0.001268630032427609</v>
+      </c>
+      <c r="K47">
+        <v>-0.0583752803504467</v>
+      </c>
+      <c r="L47">
+        <v>0.3053792417049408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1931,22 +2648,37 @@
         <v>-0.1605144590139389</v>
       </c>
       <c r="C48">
+        <v>-0.0824786052107811</v>
+      </c>
+      <c r="D48">
+        <v>-0.03066570684313774</v>
+      </c>
+      <c r="E48">
+        <v>-0.09447053819894791</v>
+      </c>
+      <c r="F48">
         <v>-0.1374692916870117</v>
       </c>
-      <c r="D48">
+      <c r="G48">
         <v>-0.04588881134986877</v>
       </c>
-      <c r="E48">
+      <c r="H48">
         <v>-0.5914219617843628</v>
       </c>
-      <c r="F48">
+      <c r="I48">
         <v>-0.03720444068312645</v>
       </c>
-      <c r="G48">
-        <v>-0.5266538858413696</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="J48">
+        <v>-0.04588881134986877</v>
+      </c>
+      <c r="K48">
+        <v>-0.004324228502810001</v>
+      </c>
+      <c r="L48">
+        <v>-0.2814852893352509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -1954,22 +2686,37 @@
         <v>0.05030876398086548</v>
       </c>
       <c r="C49">
+        <v>-0.1515247225761414</v>
+      </c>
+      <c r="D49">
+        <v>-0.01417052745819092</v>
+      </c>
+      <c r="E49">
+        <v>-0.1927654147148132</v>
+      </c>
+      <c r="F49">
         <v>-0.1032635867595673</v>
       </c>
-      <c r="D49">
+      <c r="G49">
         <v>-0.01785998791456223</v>
       </c>
-      <c r="E49">
+      <c r="H49">
         <v>-0.7630480527877808</v>
       </c>
-      <c r="F49">
+      <c r="I49">
         <v>-0.0567610040307045</v>
       </c>
-      <c r="G49">
-        <v>0.8046860694885254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="J49">
+        <v>-0.01785998791456223</v>
+      </c>
+      <c r="K49">
+        <v>-0.1941138654947281</v>
+      </c>
+      <c r="L49">
+        <v>-0.3117587566375732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1977,22 +2724,37 @@
         <v>-0.1074055433273315</v>
       </c>
       <c r="C50">
+        <v>-0.04528633132576942</v>
+      </c>
+      <c r="D50">
+        <v>-0.004191091749817133</v>
+      </c>
+      <c r="E50">
+        <v>-0.1317899823188782</v>
+      </c>
+      <c r="F50">
         <v>-0.1301879584789276</v>
       </c>
-      <c r="D50">
+      <c r="G50">
         <v>-0.07045064866542816</v>
       </c>
-      <c r="E50">
+      <c r="H50">
         <v>0.06391292065382004</v>
       </c>
-      <c r="F50">
+      <c r="I50">
         <v>-0.05160527303814888</v>
       </c>
-      <c r="G50">
-        <v>-0.5274985432624817</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="J50">
+        <v>-0.07045064866542816</v>
+      </c>
+      <c r="K50">
+        <v>-0.03554846346378326</v>
+      </c>
+      <c r="L50">
+        <v>0.1736324280500412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -2000,22 +2762,37 @@
         <v>0.05253905802965164</v>
       </c>
       <c r="C51">
+        <v>-0.02833103388547897</v>
+      </c>
+      <c r="D51">
+        <v>-0.02092689089477062</v>
+      </c>
+      <c r="E51">
+        <v>-0.1110772714018822</v>
+      </c>
+      <c r="F51">
         <v>0.4331221580505371</v>
       </c>
-      <c r="D51">
+      <c r="G51">
         <v>0.01612206734716892</v>
       </c>
-      <c r="E51">
+      <c r="H51">
         <v>0.7103374600410461</v>
       </c>
-      <c r="F51">
+      <c r="I51">
         <v>-0.03274169936776161</v>
       </c>
-      <c r="G51">
-        <v>0.2327731102705002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="J51">
+        <v>0.01612206734716892</v>
+      </c>
+      <c r="K51">
+        <v>0.0004332543758209795</v>
+      </c>
+      <c r="L51">
+        <v>-0.5215293765068054</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -2023,22 +2800,37 @@
         <v>0.0007361183525063097</v>
       </c>
       <c r="C52">
+        <v>-0.06963307410478592</v>
+      </c>
+      <c r="D52">
+        <v>-0.03430487215518951</v>
+      </c>
+      <c r="E52">
+        <v>-0.1353896409273148</v>
+      </c>
+      <c r="F52">
         <v>0.0702374130487442</v>
       </c>
-      <c r="D52">
+      <c r="G52">
         <v>-0.02039124071598053</v>
       </c>
-      <c r="E52">
+      <c r="H52">
         <v>-0.3251337707042694</v>
       </c>
-      <c r="F52">
+      <c r="I52">
         <v>-0.05000392720103264</v>
       </c>
-      <c r="G52">
-        <v>-0.1038117259740829</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="J52">
+        <v>-0.02039124071598053</v>
+      </c>
+      <c r="K52">
+        <v>-0.1697828471660614</v>
+      </c>
+      <c r="L52">
+        <v>-0.5261958241462708</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -2046,22 +2838,37 @@
         <v>0.02803804725408554</v>
       </c>
       <c r="C53">
+        <v>-0.2027996033430099</v>
+      </c>
+      <c r="D53">
+        <v>0.03157990425825119</v>
+      </c>
+      <c r="E53">
+        <v>-0.1909441500902176</v>
+      </c>
+      <c r="F53">
         <v>-0.03388522192835808</v>
       </c>
-      <c r="D53">
+      <c r="G53">
         <v>0.01890047639608383</v>
       </c>
-      <c r="E53">
+      <c r="H53">
         <v>-0.2888016104698181</v>
       </c>
-      <c r="F53">
+      <c r="I53">
         <v>-0.06277342885732651</v>
       </c>
-      <c r="G53">
-        <v>0.9197731614112854</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="J53">
+        <v>0.01890047639608383</v>
+      </c>
+      <c r="K53">
+        <v>-0.09116216003894806</v>
+      </c>
+      <c r="L53">
+        <v>0.2634913921356201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2069,22 +2876,37 @@
         <v>-0.03116143681108952</v>
       </c>
       <c r="C54">
+        <v>-0.05824596807360649</v>
+      </c>
+      <c r="D54">
+        <v>-0.03874220326542854</v>
+      </c>
+      <c r="E54">
+        <v>-0.2075477242469788</v>
+      </c>
+      <c r="F54">
         <v>-0.0881018340587616</v>
       </c>
-      <c r="D54">
+      <c r="G54">
         <v>-0.06247524172067642</v>
       </c>
-      <c r="E54">
+      <c r="H54">
         <v>-0.8832811117172241</v>
       </c>
-      <c r="F54">
+      <c r="I54">
         <v>-0.04045641794800758</v>
       </c>
-      <c r="G54">
-        <v>-0.2775391340255737</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="J54">
+        <v>-0.06247524172067642</v>
+      </c>
+      <c r="K54">
+        <v>-0.2536060810089111</v>
+      </c>
+      <c r="L54">
+        <v>-0.6210241913795471</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -2092,22 +2914,37 @@
         <v>-0.04943561926484108</v>
       </c>
       <c r="C55">
+        <v>-0.1334483325481415</v>
+      </c>
+      <c r="D55">
+        <v>0.01228806842118502</v>
+      </c>
+      <c r="E55">
+        <v>-0.1911611109972</v>
+      </c>
+      <c r="F55">
         <v>-0.04615192487835884</v>
       </c>
-      <c r="D55">
+      <c r="G55">
         <v>-0.02844531461596489</v>
       </c>
-      <c r="E55">
+      <c r="H55">
         <v>-0.5499981641769409</v>
       </c>
-      <c r="F55">
+      <c r="I55">
         <v>-0.03840283304452896</v>
       </c>
-      <c r="G55">
-        <v>-0.5580037832260132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="J55">
+        <v>-0.02844531461596489</v>
+      </c>
+      <c r="K55">
+        <v>-0.1523224711418152</v>
+      </c>
+      <c r="L55">
+        <v>-0.4616832137107849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2115,22 +2952,37 @@
         <v>-0.0594167448580265</v>
       </c>
       <c r="C56">
+        <v>-0.07696804404258728</v>
+      </c>
+      <c r="D56">
+        <v>-0.01851822249591351</v>
+      </c>
+      <c r="E56">
+        <v>-0.1299968808889389</v>
+      </c>
+      <c r="F56">
         <v>-0.1813228726387024</v>
       </c>
-      <c r="D56">
+      <c r="G56">
         <v>-0.03778688982129097</v>
       </c>
-      <c r="E56">
+      <c r="H56">
         <v>-0.2411278337240219</v>
       </c>
-      <c r="F56">
+      <c r="I56">
         <v>-0.05254045873880386</v>
       </c>
-      <c r="G56">
-        <v>-0.2698980271816254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="J56">
+        <v>-0.03778688982129097</v>
+      </c>
+      <c r="K56">
+        <v>-0.1626208275556564</v>
+      </c>
+      <c r="L56">
+        <v>-0.3552338480949402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2138,22 +2990,37 @@
         <v>0.06645064800977707</v>
       </c>
       <c r="C57">
+        <v>-0.1127417609095573</v>
+      </c>
+      <c r="D57">
+        <v>-0.03945532441139221</v>
+      </c>
+      <c r="E57">
+        <v>-0.2019248902797699</v>
+      </c>
+      <c r="F57">
         <v>-0.0916057825088501</v>
       </c>
-      <c r="D57">
+      <c r="G57">
         <v>-0.006855188868939877</v>
       </c>
-      <c r="E57">
+      <c r="H57">
         <v>-0.5363467931747437</v>
       </c>
-      <c r="F57">
+      <c r="I57">
         <v>-0.05917583778500557</v>
       </c>
-      <c r="G57">
-        <v>-0.1320706605911255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="J57">
+        <v>-0.006855188868939877</v>
+      </c>
+      <c r="K57">
+        <v>-0.1195295006036758</v>
+      </c>
+      <c r="L57">
+        <v>-0.56036376953125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2161,22 +3028,37 @@
         <v>-0.1525804400444031</v>
       </c>
       <c r="C58">
+        <v>-0.07908732444047928</v>
+      </c>
+      <c r="D58">
+        <v>-0.02071234956383705</v>
+      </c>
+      <c r="E58">
+        <v>-0.1246538981795311</v>
+      </c>
+      <c r="F58">
         <v>-0.186358243227005</v>
       </c>
-      <c r="D58">
+      <c r="G58">
         <v>-0.03202817961573601</v>
       </c>
-      <c r="E58">
+      <c r="H58">
         <v>-0.827720582485199</v>
       </c>
-      <c r="F58">
+      <c r="I58">
         <v>-0.02917671203613281</v>
       </c>
-      <c r="G58">
-        <v>0.01299842912703753</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="J58">
+        <v>-0.03202817961573601</v>
+      </c>
+      <c r="K58">
+        <v>-0.2186742275953293</v>
+      </c>
+      <c r="L58">
+        <v>-0.426448255777359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2184,22 +3066,37 @@
         <v>-0.05014225840568542</v>
       </c>
       <c r="C59">
+        <v>-0.1274729073047638</v>
+      </c>
+      <c r="D59">
+        <v>0.00651879096403718</v>
+      </c>
+      <c r="E59">
+        <v>-0.1116145774722099</v>
+      </c>
+      <c r="F59">
         <v>-0.09043540060520172</v>
       </c>
-      <c r="D59">
+      <c r="G59">
         <v>0.0180478859692812</v>
       </c>
-      <c r="E59">
+      <c r="H59">
         <v>-0.8405510783195496</v>
       </c>
-      <c r="F59">
+      <c r="I59">
         <v>-0.04510483145713806</v>
       </c>
-      <c r="G59">
-        <v>-0.3334280848503113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="J59">
+        <v>0.0180478859692812</v>
+      </c>
+      <c r="K59">
+        <v>-0.06012264266610146</v>
+      </c>
+      <c r="L59">
+        <v>-0.2485812455415726</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -2207,22 +3104,37 @@
         <v>-0.0371718667447567</v>
       </c>
       <c r="C60">
+        <v>-0.1572639793157578</v>
+      </c>
+      <c r="D60">
+        <v>-0.02726839110255241</v>
+      </c>
+      <c r="E60">
+        <v>-0.1794271171092987</v>
+      </c>
+      <c r="F60">
         <v>-0.1523177772760391</v>
       </c>
-      <c r="D60">
+      <c r="G60">
         <v>-0.02204079739749432</v>
       </c>
-      <c r="E60">
+      <c r="H60">
         <v>-0.8905380368232727</v>
       </c>
-      <c r="F60">
+      <c r="I60">
         <v>-0.07258906215429306</v>
       </c>
-      <c r="G60">
-        <v>-0.2357626259326935</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="J60">
+        <v>-0.02204079739749432</v>
+      </c>
+      <c r="K60">
+        <v>-0.00526706874370575</v>
+      </c>
+      <c r="L60">
+        <v>-0.153480738401413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -2230,22 +3142,37 @@
         <v>-0.04740883782505989</v>
       </c>
       <c r="C61">
+        <v>-0.1363224983215332</v>
+      </c>
+      <c r="D61">
+        <v>-0.02409735508263111</v>
+      </c>
+      <c r="E61">
+        <v>-0.158302515745163</v>
+      </c>
+      <c r="F61">
         <v>-0.1723629087209702</v>
       </c>
-      <c r="D61">
+      <c r="G61">
         <v>-0.0171083826571703</v>
       </c>
-      <c r="E61">
+      <c r="H61">
         <v>-0.6121699810028076</v>
       </c>
-      <c r="F61">
+      <c r="I61">
         <v>-0.05749262124300003</v>
       </c>
-      <c r="G61">
-        <v>-0.1819800138473511</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="J61">
+        <v>-0.0171083826571703</v>
+      </c>
+      <c r="K61">
+        <v>-0.142461434006691</v>
+      </c>
+      <c r="L61">
+        <v>-0.506569504737854</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -2253,22 +3180,37 @@
         <v>-0.09968012571334839</v>
       </c>
       <c r="C62">
+        <v>-0.05410777777433395</v>
+      </c>
+      <c r="D62">
+        <v>-0.03156033903360367</v>
+      </c>
+      <c r="E62">
+        <v>-0.1599798202514648</v>
+      </c>
+      <c r="F62">
         <v>-0.1642046570777893</v>
       </c>
-      <c r="D62">
+      <c r="G62">
         <v>-0.04802276939153671</v>
       </c>
-      <c r="E62">
+      <c r="H62">
         <v>-0.5369818210601807</v>
       </c>
-      <c r="F62">
+      <c r="I62">
         <v>-0.05586975440382957</v>
       </c>
-      <c r="G62">
-        <v>-0.5045394897460938</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="J62">
+        <v>-0.04802276939153671</v>
+      </c>
+      <c r="K62">
+        <v>-0.1159737259149551</v>
+      </c>
+      <c r="L62">
+        <v>-0.4723663628101349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -2276,22 +3218,37 @@
         <v>-0.08548256754875183</v>
       </c>
       <c r="C63">
+        <v>-0.09428739547729492</v>
+      </c>
+      <c r="D63">
+        <v>-0.04032887145876884</v>
+      </c>
+      <c r="E63">
+        <v>-0.2321784794330597</v>
+      </c>
+      <c r="F63">
         <v>-0.2156758308410645</v>
       </c>
-      <c r="D63">
+      <c r="G63">
         <v>-0.06675323843955994</v>
       </c>
-      <c r="E63">
+      <c r="H63">
         <v>-0.545082688331604</v>
       </c>
-      <c r="F63">
+      <c r="I63">
         <v>-0.03695067763328552</v>
       </c>
-      <c r="G63">
-        <v>-0.8070045709609985</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="J63">
+        <v>-0.06675323843955994</v>
+      </c>
+      <c r="K63">
+        <v>-0.1921281367540359</v>
+      </c>
+      <c r="L63">
+        <v>-0.3030411005020142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -2299,22 +3256,37 @@
         <v>-0.02802641503512859</v>
       </c>
       <c r="C64">
+        <v>-0.06889104098081589</v>
+      </c>
+      <c r="D64">
+        <v>-0.03089390508830547</v>
+      </c>
+      <c r="E64">
+        <v>-0.1384119540452957</v>
+      </c>
+      <c r="F64">
         <v>-0.166881337761879</v>
       </c>
-      <c r="D64">
+      <c r="G64">
         <v>-0.03971851989626884</v>
       </c>
-      <c r="E64">
+      <c r="H64">
         <v>-0.521949291229248</v>
       </c>
-      <c r="F64">
+      <c r="I64">
         <v>-0.02667233906686306</v>
       </c>
-      <c r="G64">
-        <v>-0.4962190687656403</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="J64">
+        <v>-0.03971851989626884</v>
+      </c>
+      <c r="K64">
+        <v>-0.1136643439531326</v>
+      </c>
+      <c r="L64">
+        <v>-0.5926823019981384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -2322,22 +3294,37 @@
         <v>0.04458514228463173</v>
       </c>
       <c r="C65">
+        <v>-0.203303188085556</v>
+      </c>
+      <c r="D65">
+        <v>-0.02670718729496002</v>
+      </c>
+      <c r="E65">
+        <v>-0.230643555521965</v>
+      </c>
+      <c r="F65">
         <v>0.01918442919850349</v>
       </c>
-      <c r="D65">
+      <c r="G65">
         <v>-0.0286736860871315</v>
       </c>
-      <c r="E65">
+      <c r="H65">
         <v>-0.3216270208358765</v>
       </c>
-      <c r="F65">
+      <c r="I65">
         <v>-0.05252718180418015</v>
       </c>
-      <c r="G65">
-        <v>-0.09301368147134781</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="J65">
+        <v>-0.0286736860871315</v>
+      </c>
+      <c r="K65">
+        <v>-0.1170251369476318</v>
+      </c>
+      <c r="L65">
+        <v>-0.3084648549556732</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -2345,22 +3332,37 @@
         <v>0.07274632155895233</v>
       </c>
       <c r="C66">
+        <v>-0.1006403416395187</v>
+      </c>
+      <c r="D66">
+        <v>-0.03312068805098534</v>
+      </c>
+      <c r="E66">
+        <v>-0.2371405512094498</v>
+      </c>
+      <c r="F66">
         <v>0.2159842997789383</v>
       </c>
-      <c r="D66">
+      <c r="G66">
         <v>0.02204430289566517</v>
       </c>
-      <c r="E66">
+      <c r="H66">
         <v>-0.3543548882007599</v>
       </c>
-      <c r="F66">
+      <c r="I66">
         <v>-0.06508183479309082</v>
       </c>
-      <c r="G66">
-        <v>0.4939345419406891</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="J66">
+        <v>0.02204430289566517</v>
+      </c>
+      <c r="K66">
+        <v>-0.1314269006252289</v>
+      </c>
+      <c r="L66">
+        <v>-0.06245872750878334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -2368,22 +3370,37 @@
         <v>-0.06269098073244095</v>
       </c>
       <c r="C67">
+        <v>-0.09209772199392319</v>
+      </c>
+      <c r="D67">
+        <v>-0.04256234690546989</v>
+      </c>
+      <c r="E67">
+        <v>-0.131844088435173</v>
+      </c>
+      <c r="F67">
         <v>-0.2162865251302719</v>
       </c>
-      <c r="D67">
+      <c r="G67">
         <v>-0.04494934529066086</v>
       </c>
-      <c r="E67">
+      <c r="H67">
         <v>-0.5457873940467834</v>
       </c>
-      <c r="F67">
+      <c r="I67">
         <v>-0.04184591397643089</v>
       </c>
-      <c r="G67">
-        <v>-0.5138692259788513</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="J67">
+        <v>-0.04494934529066086</v>
+      </c>
+      <c r="K67">
+        <v>-0.08181609958410263</v>
+      </c>
+      <c r="L67">
+        <v>-0.5277251005172729</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -2391,22 +3408,37 @@
         <v>-0.009017344564199448</v>
       </c>
       <c r="C68">
+        <v>-0.07073692977428436</v>
+      </c>
+      <c r="D68">
+        <v>-0.06320943683385849</v>
+      </c>
+      <c r="E68">
+        <v>-0.2279538661241531</v>
+      </c>
+      <c r="F68">
         <v>-0.02378884702920914</v>
       </c>
-      <c r="D68">
+      <c r="G68">
         <v>-0.04051778092980385</v>
       </c>
-      <c r="E68">
+      <c r="H68">
         <v>-0.4830179810523987</v>
       </c>
-      <c r="F68">
+      <c r="I68">
         <v>-0.07736536860466003</v>
       </c>
-      <c r="G68">
-        <v>-0.6846456527709961</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="J68">
+        <v>-0.04051778092980385</v>
+      </c>
+      <c r="K68">
+        <v>-0.05997652933001518</v>
+      </c>
+      <c r="L68">
+        <v>0.02330408431589603</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -2414,22 +3446,37 @@
         <v>-0.006045268382877111</v>
       </c>
       <c r="C69">
+        <v>-0.0527634359896183</v>
+      </c>
+      <c r="D69">
+        <v>-0.01782375015318394</v>
+      </c>
+      <c r="E69">
+        <v>-0.1295467466115952</v>
+      </c>
+      <c r="F69">
         <v>-0.1225860714912415</v>
       </c>
-      <c r="D69">
+      <c r="G69">
         <v>-0.04842731729149818</v>
       </c>
-      <c r="E69">
+      <c r="H69">
         <v>-0.2239571660757065</v>
       </c>
-      <c r="F69">
+      <c r="I69">
         <v>-0.01922654919326305</v>
       </c>
-      <c r="G69">
-        <v>0.2783351540565491</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="J69">
+        <v>-0.04842731729149818</v>
+      </c>
+      <c r="K69">
+        <v>-0.1382249295711517</v>
+      </c>
+      <c r="L69">
+        <v>-0.3648296296596527</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -2437,22 +3484,37 @@
         <v>0.05032442510128021</v>
       </c>
       <c r="C70">
+        <v>-0.1980491429567337</v>
+      </c>
+      <c r="D70">
+        <v>-0.02649694494903088</v>
+      </c>
+      <c r="E70">
+        <v>-0.1805551052093506</v>
+      </c>
+      <c r="F70">
         <v>-0.4110409021377563</v>
       </c>
-      <c r="D70">
+      <c r="G70">
         <v>-0.04502947255969048</v>
       </c>
-      <c r="E70">
+      <c r="H70">
         <v>-0.8293137550354004</v>
       </c>
-      <c r="F70">
+      <c r="I70">
         <v>-0.08511243760585785</v>
       </c>
-      <c r="G70">
-        <v>0.2922234833240509</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="J70">
+        <v>-0.04502947255969048</v>
+      </c>
+      <c r="K70">
+        <v>-0.08477821201086044</v>
+      </c>
+      <c r="L70">
+        <v>-0.2145182192325592</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -2460,22 +3522,37 @@
         <v>-0.01876827515661716</v>
       </c>
       <c r="C71">
+        <v>-0.06744848936796188</v>
+      </c>
+      <c r="D71">
+        <v>-0.02697837352752686</v>
+      </c>
+      <c r="E71">
+        <v>-0.2168241292238235</v>
+      </c>
+      <c r="F71">
         <v>0.0746031254529953</v>
       </c>
-      <c r="D71">
+      <c r="G71">
         <v>-0.005047096405178308</v>
       </c>
-      <c r="E71">
+      <c r="H71">
         <v>-0.4625223278999329</v>
       </c>
-      <c r="F71">
+      <c r="I71">
         <v>-0.02564840763807297</v>
       </c>
-      <c r="G71">
-        <v>-0.3907530009746552</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="J71">
+        <v>-0.005047096405178308</v>
+      </c>
+      <c r="K71">
+        <v>-0.1107921525835991</v>
+      </c>
+      <c r="L71">
+        <v>0.02625339291989803</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -2483,22 +3560,37 @@
         <v>-0.1021190583705902</v>
       </c>
       <c r="C72">
+        <v>-0.09616593271493912</v>
+      </c>
+      <c r="D72">
+        <v>-0.0009276962373405695</v>
+      </c>
+      <c r="E72">
+        <v>-0.1280201375484467</v>
+      </c>
+      <c r="F72">
         <v>-0.2073733061552048</v>
       </c>
-      <c r="D72">
+      <c r="G72">
         <v>-0.05912383645772934</v>
       </c>
-      <c r="E72">
+      <c r="H72">
         <v>-0.5963478088378906</v>
       </c>
-      <c r="F72">
+      <c r="I72">
         <v>-0.07621236145496368</v>
       </c>
-      <c r="G72">
-        <v>-0.03987572342157364</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="J72">
+        <v>-0.05912383645772934</v>
+      </c>
+      <c r="K72">
+        <v>-0.06045972183346748</v>
+      </c>
+      <c r="L72">
+        <v>-0.5683416128158569</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -2506,22 +3598,37 @@
         <v>0.02571903541684151</v>
       </c>
       <c r="C73">
+        <v>-0.02889438346028328</v>
+      </c>
+      <c r="D73">
+        <v>-0.03844920173287392</v>
+      </c>
+      <c r="E73">
+        <v>-0.08078237622976303</v>
+      </c>
+      <c r="F73">
         <v>-0.04700645431876183</v>
       </c>
-      <c r="D73">
+      <c r="G73">
         <v>-0.04726001247763634</v>
       </c>
-      <c r="E73">
+      <c r="H73">
         <v>-0.3069888949394226</v>
       </c>
-      <c r="F73">
+      <c r="I73">
         <v>-0.03424175083637238</v>
       </c>
-      <c r="G73">
-        <v>-0.2703264355659485</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="J73">
+        <v>-0.04726001247763634</v>
+      </c>
+      <c r="K73">
+        <v>-0.09449458867311478</v>
+      </c>
+      <c r="L73">
+        <v>-0.5966391563415527</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -2529,22 +3636,37 @@
         <v>-0.0132379699498415</v>
       </c>
       <c r="C74">
+        <v>-0.08425300568342209</v>
+      </c>
+      <c r="D74">
+        <v>-0.02314354479312897</v>
+      </c>
+      <c r="E74">
+        <v>-0.1449617445468903</v>
+      </c>
+      <c r="F74">
         <v>-0.1674428731203079</v>
       </c>
-      <c r="D74">
+      <c r="G74">
         <v>-0.07109823822975159</v>
       </c>
-      <c r="E74">
+      <c r="H74">
         <v>-0.4614765048027039</v>
       </c>
-      <c r="F74">
+      <c r="I74">
         <v>-0.07610514014959335</v>
       </c>
-      <c r="G74">
-        <v>-0.1226226687431335</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="J74">
+        <v>-0.07109823822975159</v>
+      </c>
+      <c r="K74">
+        <v>-0.1245305091142654</v>
+      </c>
+      <c r="L74">
+        <v>-0.4695335626602173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -2552,22 +3674,37 @@
         <v>-0.1519292891025543</v>
       </c>
       <c r="C75">
+        <v>-0.1130625903606415</v>
+      </c>
+      <c r="D75">
+        <v>-0.02419543266296387</v>
+      </c>
+      <c r="E75">
+        <v>-0.1859862506389618</v>
+      </c>
+      <c r="F75">
         <v>-0.1176542639732361</v>
       </c>
-      <c r="D75">
+      <c r="G75">
         <v>-0.02148297429084778</v>
       </c>
-      <c r="E75">
+      <c r="H75">
         <v>-0.5097653865814209</v>
       </c>
-      <c r="F75">
+      <c r="I75">
         <v>-0.05437177792191505</v>
       </c>
-      <c r="G75">
-        <v>-0.1405084729194641</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="J75">
+        <v>-0.02148297429084778</v>
+      </c>
+      <c r="K75">
+        <v>-0.166886031627655</v>
+      </c>
+      <c r="L75">
+        <v>-0.1668799817562103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -2575,22 +3712,37 @@
         <v>-0.1071227863430977</v>
       </c>
       <c r="C76">
+        <v>-0.08878141641616821</v>
+      </c>
+      <c r="D76">
+        <v>-0.002449512016028166</v>
+      </c>
+      <c r="E76">
+        <v>-0.09968741983175278</v>
+      </c>
+      <c r="F76">
         <v>-0.1105331033468246</v>
       </c>
-      <c r="D76">
+      <c r="G76">
         <v>-0.02117409929633141</v>
       </c>
-      <c r="E76">
+      <c r="H76">
         <v>-0.443121075630188</v>
       </c>
-      <c r="F76">
+      <c r="I76">
         <v>-0.04330737516283989</v>
       </c>
-      <c r="G76">
-        <v>-0.1946219503879547</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="J76">
+        <v>-0.02117409929633141</v>
+      </c>
+      <c r="K76">
+        <v>-0.07609209418296814</v>
+      </c>
+      <c r="L76">
+        <v>-0.3722143471240997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -2598,22 +3750,37 @@
         <v>0.008842423558235168</v>
       </c>
       <c r="C77">
+        <v>-0.1401827484369278</v>
+      </c>
+      <c r="D77">
+        <v>-0.03685291483998299</v>
+      </c>
+      <c r="E77">
+        <v>-0.1187100112438202</v>
+      </c>
+      <c r="F77">
         <v>-0.1965077966451645</v>
       </c>
-      <c r="D77">
+      <c r="G77">
         <v>-0.05528314411640167</v>
       </c>
-      <c r="E77">
+      <c r="H77">
         <v>-0.7577061653137207</v>
       </c>
-      <c r="F77">
+      <c r="I77">
         <v>-0.03234295547008514</v>
       </c>
-      <c r="G77">
-        <v>-0.3887412548065186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="J77">
+        <v>-0.05528314411640167</v>
+      </c>
+      <c r="K77">
+        <v>0.03598752990365028</v>
+      </c>
+      <c r="L77">
+        <v>-0.5095447301864624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -2621,22 +3788,37 @@
         <v>-0.05898397043347359</v>
       </c>
       <c r="C78">
+        <v>-0.04712048918008804</v>
+      </c>
+      <c r="D78">
+        <v>-0.0457969568669796</v>
+      </c>
+      <c r="E78">
+        <v>-0.1320314407348633</v>
+      </c>
+      <c r="F78">
         <v>-0.1313945353031158</v>
       </c>
-      <c r="D78">
+      <c r="G78">
         <v>-0.04510250315070152</v>
       </c>
-      <c r="E78">
+      <c r="H78">
         <v>-0.851385235786438</v>
       </c>
-      <c r="F78">
+      <c r="I78">
         <v>-0.04132528975605965</v>
       </c>
-      <c r="G78">
-        <v>-0.8234646320343018</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="J78">
+        <v>-0.04510250315070152</v>
+      </c>
+      <c r="K78">
+        <v>-0.2060646265745163</v>
+      </c>
+      <c r="L78">
+        <v>-0.6422377824783325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -2644,22 +3826,37 @@
         <v>-0.03569230064749718</v>
       </c>
       <c r="C79">
+        <v>-0.03102090768516064</v>
+      </c>
+      <c r="D79">
+        <v>-0.04510900005698204</v>
+      </c>
+      <c r="E79">
+        <v>-0.1704254001379013</v>
+      </c>
+      <c r="F79">
         <v>-0.208592489361763</v>
       </c>
-      <c r="D79">
+      <c r="G79">
         <v>-0.07935352623462677</v>
       </c>
-      <c r="E79">
+      <c r="H79">
         <v>-0.7827600836753845</v>
       </c>
-      <c r="F79">
+      <c r="I79">
         <v>-0.04719144478440285</v>
       </c>
-      <c r="G79">
-        <v>-0.3555919528007507</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="J79">
+        <v>-0.07935352623462677</v>
+      </c>
+      <c r="K79">
+        <v>-0.2221097350120544</v>
+      </c>
+      <c r="L79">
+        <v>-0.6847701072692871</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -2667,22 +3864,37 @@
         <v>-0.07453600317239761</v>
       </c>
       <c r="C80">
+        <v>-0.02645408548414707</v>
+      </c>
+      <c r="D80">
+        <v>-0.02381877414882183</v>
+      </c>
+      <c r="E80">
+        <v>-0.1824165284633636</v>
+      </c>
+      <c r="F80">
         <v>-0.2347986549139023</v>
       </c>
-      <c r="D80">
+      <c r="G80">
         <v>-0.09850532561540604</v>
       </c>
-      <c r="E80">
+      <c r="H80">
         <v>-0.5609897971153259</v>
       </c>
-      <c r="F80">
+      <c r="I80">
         <v>-0.05510462820529938</v>
       </c>
-      <c r="G80">
-        <v>-0.5224838852882385</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="J80">
+        <v>-0.09850532561540604</v>
+      </c>
+      <c r="K80">
+        <v>-0.195899099111557</v>
+      </c>
+      <c r="L80">
+        <v>-0.3093349635601044</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -2690,22 +3902,37 @@
         <v>-0.0998491495847702</v>
       </c>
       <c r="C81">
+        <v>-0.07709517329931259</v>
+      </c>
+      <c r="D81">
+        <v>-0.03777838125824928</v>
+      </c>
+      <c r="E81">
+        <v>-0.1211350113153458</v>
+      </c>
+      <c r="F81">
         <v>-0.1048470512032509</v>
       </c>
-      <c r="D81">
+      <c r="G81">
         <v>-0.03904106095433235</v>
       </c>
-      <c r="E81">
+      <c r="H81">
         <v>-0.1373739391565323</v>
       </c>
-      <c r="F81">
+      <c r="I81">
         <v>-0.04818208143115044</v>
       </c>
-      <c r="G81">
-        <v>-0.4642585515975952</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="J81">
+        <v>-0.03904106095433235</v>
+      </c>
+      <c r="K81">
+        <v>-0.1354914754629135</v>
+      </c>
+      <c r="L81">
+        <v>-0.6280801296234131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -2713,22 +3940,37 @@
         <v>-0.1071101650595665</v>
       </c>
       <c r="C82">
+        <v>0.005477792583405972</v>
+      </c>
+      <c r="D82">
+        <v>-0.05378267541527748</v>
+      </c>
+      <c r="E82">
+        <v>-0.2243686318397522</v>
+      </c>
+      <c r="F82">
         <v>-0.1126912236213684</v>
       </c>
-      <c r="D82">
+      <c r="G82">
         <v>-0.04487290605902672</v>
       </c>
-      <c r="E82">
+      <c r="H82">
         <v>-0.567514181137085</v>
       </c>
-      <c r="F82">
+      <c r="I82">
         <v>-0.08430005609989166</v>
       </c>
-      <c r="G82">
-        <v>-0.3758058547973633</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="J82">
+        <v>-0.04487290605902672</v>
+      </c>
+      <c r="K82">
+        <v>-0.2796143293380737</v>
+      </c>
+      <c r="L82">
+        <v>-0.281501442193985</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -2736,22 +3978,37 @@
         <v>-0.03717878833413124</v>
       </c>
       <c r="C83">
+        <v>-0.05125033855438232</v>
+      </c>
+      <c r="D83">
+        <v>-0.027083745226264</v>
+      </c>
+      <c r="E83">
+        <v>-0.09995429217815399</v>
+      </c>
+      <c r="F83">
         <v>-0.03664084151387215</v>
       </c>
-      <c r="D83">
+      <c r="G83">
         <v>-0.01344912406057119</v>
       </c>
-      <c r="E83">
+      <c r="H83">
         <v>-0.7453886270523071</v>
       </c>
-      <c r="F83">
+      <c r="I83">
         <v>-0.04182155430316925</v>
       </c>
-      <c r="G83">
-        <v>-0.6780431866645813</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="J83">
+        <v>-0.01344912406057119</v>
+      </c>
+      <c r="K83">
+        <v>-0.1408421993255615</v>
+      </c>
+      <c r="L83">
+        <v>-0.6780980825424194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -2759,22 +4016,37 @@
         <v>-0.1047394350171089</v>
       </c>
       <c r="C84">
+        <v>-0.1363658756017685</v>
+      </c>
+      <c r="D84">
+        <v>-0.03322799876332283</v>
+      </c>
+      <c r="E84">
+        <v>-0.1238725408911705</v>
+      </c>
+      <c r="F84">
         <v>-0.3462795913219452</v>
       </c>
-      <c r="D84">
+      <c r="G84">
         <v>-0.03660687059164047</v>
       </c>
-      <c r="E84">
+      <c r="H84">
         <v>-0.7515771985054016</v>
       </c>
-      <c r="F84">
+      <c r="I84">
         <v>-0.04055456072092056</v>
       </c>
-      <c r="G84">
-        <v>-0.06138105317950249</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="J84">
+        <v>-0.03660687059164047</v>
+      </c>
+      <c r="K84">
+        <v>-0.1033869609236717</v>
+      </c>
+      <c r="L84">
+        <v>-0.4374048411846161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -2782,22 +4054,37 @@
         <v>0.03347505629062653</v>
       </c>
       <c r="C85">
+        <v>-0.1473606526851654</v>
+      </c>
+      <c r="D85">
+        <v>-0.02385492250323296</v>
+      </c>
+      <c r="E85">
+        <v>-0.1758709251880646</v>
+      </c>
+      <c r="F85">
         <v>-0.07601660490036011</v>
       </c>
-      <c r="D85">
+      <c r="G85">
         <v>-0.03275876864790916</v>
       </c>
-      <c r="E85">
+      <c r="H85">
         <v>-0.7822369337081909</v>
       </c>
-      <c r="F85">
+      <c r="I85">
         <v>-0.03956787288188934</v>
       </c>
-      <c r="G85">
-        <v>0.2060622125864029</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="J85">
+        <v>-0.03275876864790916</v>
+      </c>
+      <c r="K85">
+        <v>-0.05434835702180862</v>
+      </c>
+      <c r="L85">
+        <v>-0.3212000131607056</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -2805,22 +4092,37 @@
         <v>0.00137580547016114</v>
       </c>
       <c r="C86">
+        <v>-0.01843683235347271</v>
+      </c>
+      <c r="D86">
+        <v>-0.008523310534656048</v>
+      </c>
+      <c r="E86">
+        <v>-0.1297200918197632</v>
+      </c>
+      <c r="F86">
         <v>-0.3707846105098724</v>
       </c>
-      <c r="D86">
+      <c r="G86">
         <v>-0.05860548466444016</v>
       </c>
-      <c r="E86">
+      <c r="H86">
         <v>-0.6218876838684082</v>
       </c>
-      <c r="F86">
+      <c r="I86">
         <v>-0.01711133122444153</v>
       </c>
-      <c r="G86">
-        <v>-0.1954204738140106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="J86">
+        <v>-0.05860548466444016</v>
+      </c>
+      <c r="K86">
+        <v>-0.1586384028196335</v>
+      </c>
+      <c r="L86">
+        <v>-0.2128011882305145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -2828,22 +4130,37 @@
         <v>-0.05671766772866249</v>
       </c>
       <c r="C87">
+        <v>-0.0844847708940506</v>
+      </c>
+      <c r="D87">
+        <v>0.01282150764018297</v>
+      </c>
+      <c r="E87">
+        <v>-0.1405843496322632</v>
+      </c>
+      <c r="F87">
         <v>-0.1403156071901321</v>
       </c>
-      <c r="D87">
+      <c r="G87">
         <v>-0.03448896482586861</v>
       </c>
-      <c r="E87">
+      <c r="H87">
         <v>-0.8076322078704834</v>
       </c>
-      <c r="F87">
+      <c r="I87">
         <v>-0.06450445950031281</v>
       </c>
-      <c r="G87">
-        <v>-0.5951108932495117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="J87">
+        <v>-0.03448896482586861</v>
+      </c>
+      <c r="K87">
+        <v>-0.1640595048666</v>
+      </c>
+      <c r="L87">
+        <v>-0.4218203127384186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -2851,22 +4168,37 @@
         <v>-0.05669185891747475</v>
       </c>
       <c r="C88">
+        <v>-0.1024014055728912</v>
+      </c>
+      <c r="D88">
+        <v>-0.06925401836633682</v>
+      </c>
+      <c r="E88">
+        <v>-0.1287500411272049</v>
+      </c>
+      <c r="F88">
         <v>-0.1863254904747009</v>
       </c>
-      <c r="D88">
+      <c r="G88">
         <v>-0.04367894306778908</v>
       </c>
-      <c r="E88">
+      <c r="H88">
         <v>-0.4442315399646759</v>
       </c>
-      <c r="F88">
+      <c r="I88">
         <v>-0.03247861191630363</v>
       </c>
-      <c r="G88">
-        <v>-0.4818315505981445</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="J88">
+        <v>-0.04367894306778908</v>
+      </c>
+      <c r="K88">
+        <v>-0.1783537566661835</v>
+      </c>
+      <c r="L88">
+        <v>-0.6346161365509033</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -2874,22 +4206,37 @@
         <v>-0.04589641094207764</v>
       </c>
       <c r="C89">
+        <v>-0.0627262145280838</v>
+      </c>
+      <c r="D89">
+        <v>-0.05802268162369728</v>
+      </c>
+      <c r="E89">
+        <v>-0.1523290574550629</v>
+      </c>
+      <c r="F89">
         <v>-0.1876077204942703</v>
       </c>
-      <c r="D89">
+      <c r="G89">
         <v>-0.05943791568279266</v>
       </c>
-      <c r="E89">
+      <c r="H89">
         <v>-0.5693579912185669</v>
       </c>
-      <c r="F89">
+      <c r="I89">
         <v>-0.06182989105582237</v>
       </c>
-      <c r="G89">
-        <v>-0.04387198761105537</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="J89">
+        <v>-0.05943791568279266</v>
+      </c>
+      <c r="K89">
+        <v>-0.1652445793151855</v>
+      </c>
+      <c r="L89">
+        <v>-0.4987082481384277</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -2897,22 +4244,37 @@
         <v>0.001417693216353655</v>
       </c>
       <c r="C90">
+        <v>-0.1246232688426971</v>
+      </c>
+      <c r="D90">
+        <v>-0.02174132689833641</v>
+      </c>
+      <c r="E90">
+        <v>-0.1596170365810394</v>
+      </c>
+      <c r="F90">
         <v>-0.3019132614135742</v>
       </c>
-      <c r="D90">
+      <c r="G90">
         <v>-0.02475158125162125</v>
       </c>
-      <c r="E90">
+      <c r="H90">
         <v>-0.6090520620346069</v>
       </c>
-      <c r="F90">
+      <c r="I90">
         <v>-0.0703723281621933</v>
       </c>
-      <c r="G90">
-        <v>-0.3006522953510284</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="J90">
+        <v>-0.02475158125162125</v>
+      </c>
+      <c r="K90">
+        <v>-0.2096987217664719</v>
+      </c>
+      <c r="L90">
+        <v>-0.5834200382232666</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -2920,22 +4282,37 @@
         <v>-0.1320931017398834</v>
       </c>
       <c r="C91">
+        <v>-0.06930037587881088</v>
+      </c>
+      <c r="D91">
+        <v>-0.0453013963997364</v>
+      </c>
+      <c r="E91">
+        <v>-0.1688091456890106</v>
+      </c>
+      <c r="F91">
         <v>0.06816962361335754</v>
       </c>
-      <c r="D91">
+      <c r="G91">
         <v>-0.03790462762117386</v>
       </c>
-      <c r="E91">
+      <c r="H91">
         <v>-0.05704135820269585</v>
       </c>
-      <c r="F91">
+      <c r="I91">
         <v>-0.02754776366055012</v>
       </c>
-      <c r="G91">
-        <v>-0.6705672740936279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="J91">
+        <v>-0.03790462762117386</v>
+      </c>
+      <c r="K91">
+        <v>-0.06250270456075668</v>
+      </c>
+      <c r="L91">
+        <v>-0.2219632267951965</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -2943,22 +4320,37 @@
         <v>-0.06737379729747772</v>
       </c>
       <c r="C92">
+        <v>-0.1852293163537979</v>
+      </c>
+      <c r="D92">
+        <v>-0.04671366885304451</v>
+      </c>
+      <c r="E92">
+        <v>-0.1438317596912384</v>
+      </c>
+      <c r="F92">
         <v>-0.2774629592895508</v>
       </c>
-      <c r="D92">
+      <c r="G92">
         <v>-0.04615475982427597</v>
       </c>
-      <c r="E92">
+      <c r="H92">
         <v>-0.9122222661972046</v>
       </c>
-      <c r="F92">
+      <c r="I92">
         <v>-0.07067959755659103</v>
       </c>
-      <c r="G92">
-        <v>0.4551485478878021</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="J92">
+        <v>-0.04615475982427597</v>
+      </c>
+      <c r="K92">
+        <v>-0.1006964147090912</v>
+      </c>
+      <c r="L92">
+        <v>-0.3893102407455444</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -2966,22 +4358,37 @@
         <v>-0.03101181797683239</v>
       </c>
       <c r="C93">
+        <v>-0.03340137749910355</v>
+      </c>
+      <c r="D93">
+        <v>-0.04520760849118233</v>
+      </c>
+      <c r="E93">
+        <v>-0.1498446464538574</v>
+      </c>
+      <c r="F93">
         <v>-0.06355394423007965</v>
       </c>
-      <c r="D93">
+      <c r="G93">
         <v>-0.03357282280921936</v>
       </c>
-      <c r="E93">
+      <c r="H93">
         <v>-0.1152423471212387</v>
       </c>
-      <c r="F93">
+      <c r="I93">
         <v>-0.03030584938824177</v>
       </c>
-      <c r="G93">
-        <v>-0.1761083006858826</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="J93">
+        <v>-0.03357282280921936</v>
+      </c>
+      <c r="K93">
+        <v>-0.176116555929184</v>
+      </c>
+      <c r="L93">
+        <v>-0.5793907642364502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -2989,22 +4396,37 @@
         <v>0.01855477504432201</v>
       </c>
       <c r="C94">
+        <v>-0.1609121710062027</v>
+      </c>
+      <c r="D94">
+        <v>-0.04351652786135674</v>
+      </c>
+      <c r="E94">
+        <v>-0.1667472869157791</v>
+      </c>
+      <c r="F94">
         <v>-0.169167697429657</v>
       </c>
-      <c r="D94">
+      <c r="G94">
         <v>-0.05542105808854103</v>
       </c>
-      <c r="E94">
+      <c r="H94">
         <v>-0.8299240469932556</v>
       </c>
-      <c r="F94">
+      <c r="I94">
         <v>-0.05795788019895554</v>
       </c>
-      <c r="G94">
-        <v>0.05665914714336395</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="J94">
+        <v>-0.05542105808854103</v>
+      </c>
+      <c r="K94">
+        <v>-0.1621620804071426</v>
+      </c>
+      <c r="L94">
+        <v>-0.2916283011436462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -3012,22 +4434,37 @@
         <v>-0.07870860397815704</v>
       </c>
       <c r="C95">
+        <v>-0.0985744372010231</v>
+      </c>
+      <c r="D95">
+        <v>0.01112024579197168</v>
+      </c>
+      <c r="E95">
+        <v>-0.1923820823431015</v>
+      </c>
+      <c r="F95">
         <v>-0.07773228734731674</v>
       </c>
-      <c r="D95">
+      <c r="G95">
         <v>-0.04847187548875809</v>
       </c>
-      <c r="E95">
+      <c r="H95">
         <v>-0.1454730778932571</v>
       </c>
-      <c r="F95">
+      <c r="I95">
         <v>-0.07285068184137344</v>
       </c>
-      <c r="G95">
-        <v>-0.3579141795635223</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="J95">
+        <v>-0.04847187548875809</v>
+      </c>
+      <c r="K95">
+        <v>-0.1285503655672073</v>
+      </c>
+      <c r="L95">
+        <v>-0.08830871433019638</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -3035,22 +4472,37 @@
         <v>-0.1735423356294632</v>
       </c>
       <c r="C96">
+        <v>-0.191816508769989</v>
+      </c>
+      <c r="D96">
+        <v>-0.04399152100086212</v>
+      </c>
+      <c r="E96">
+        <v>-0.07268445193767548</v>
+      </c>
+      <c r="F96">
         <v>-0.3101305961608887</v>
       </c>
-      <c r="D96">
+      <c r="G96">
         <v>0.00495251128450036</v>
       </c>
-      <c r="E96">
+      <c r="H96">
         <v>-0.7611090540885925</v>
       </c>
-      <c r="F96">
+      <c r="I96">
         <v>-0.05926670506596565</v>
       </c>
-      <c r="G96">
-        <v>-0.2657196521759033</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="J96">
+        <v>0.00495251128450036</v>
+      </c>
+      <c r="K96">
+        <v>-0.1926481574773788</v>
+      </c>
+      <c r="L96">
+        <v>-0.7639071345329285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -3058,22 +4510,37 @@
         <v>-0.08992275595664978</v>
       </c>
       <c r="C97">
+        <v>-0.04556118696928024</v>
+      </c>
+      <c r="D97">
+        <v>-0.05690499022603035</v>
+      </c>
+      <c r="E97">
+        <v>-0.1794299781322479</v>
+      </c>
+      <c r="F97">
         <v>-0.09312028437852859</v>
       </c>
-      <c r="D97">
+      <c r="G97">
         <v>-0.06756853312253952</v>
       </c>
-      <c r="E97">
+      <c r="H97">
         <v>0.01177000626921654</v>
       </c>
-      <c r="F97">
+      <c r="I97">
         <v>-0.04947445541620255</v>
       </c>
-      <c r="G97">
-        <v>-0.4027019739151001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="J97">
+        <v>-0.06756853312253952</v>
+      </c>
+      <c r="K97">
+        <v>-0.1527059227228165</v>
+      </c>
+      <c r="L97">
+        <v>-0.3447698056697845</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -3081,22 +4548,37 @@
         <v>0.07029784470796585</v>
       </c>
       <c r="C98">
+        <v>-0.1394813358783722</v>
+      </c>
+      <c r="D98">
+        <v>-0.0385875292122364</v>
+      </c>
+      <c r="E98">
+        <v>-0.1423551887273788</v>
+      </c>
+      <c r="F98">
         <v>-0.1189384981989861</v>
       </c>
-      <c r="D98">
+      <c r="G98">
         <v>-0.0135906208306551</v>
       </c>
-      <c r="E98">
+      <c r="H98">
         <v>-0.8698543906211853</v>
       </c>
-      <c r="F98">
+      <c r="I98">
         <v>-0.03688748180866241</v>
       </c>
-      <c r="G98">
-        <v>0.2346654385328293</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="J98">
+        <v>-0.0135906208306551</v>
+      </c>
+      <c r="K98">
+        <v>-0.1925798952579498</v>
+      </c>
+      <c r="L98">
+        <v>-0.3726109862327576</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -3104,22 +4586,37 @@
         <v>-0.1289069801568985</v>
       </c>
       <c r="C99">
+        <v>-0.091970294713974</v>
+      </c>
+      <c r="D99">
+        <v>-0.03587483242154121</v>
+      </c>
+      <c r="E99">
+        <v>-0.1192816719412804</v>
+      </c>
+      <c r="F99">
         <v>-0.1148568093776703</v>
       </c>
-      <c r="D99">
+      <c r="G99">
         <v>-0.02144528739154339</v>
       </c>
-      <c r="E99">
+      <c r="H99">
         <v>-0.3200078308582306</v>
       </c>
-      <c r="F99">
+      <c r="I99">
         <v>-0.06942310929298401</v>
       </c>
-      <c r="G99">
-        <v>-0.1972732394933701</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="J99">
+        <v>-0.02144528739154339</v>
+      </c>
+      <c r="K99">
+        <v>-0.2066956013441086</v>
+      </c>
+      <c r="L99">
+        <v>-0.4975016117095947</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -3127,22 +4624,37 @@
         <v>-0.01525703351944685</v>
       </c>
       <c r="C100">
+        <v>-0.04617084935307503</v>
+      </c>
+      <c r="D100">
+        <v>0.003585550002753735</v>
+      </c>
+      <c r="E100">
+        <v>-0.1235358119010925</v>
+      </c>
+      <c r="F100">
         <v>0.08111465722322464</v>
       </c>
-      <c r="D100">
+      <c r="G100">
         <v>-0.02376602217555046</v>
       </c>
-      <c r="E100">
+      <c r="H100">
         <v>0.04686871543526649</v>
       </c>
-      <c r="F100">
+      <c r="I100">
         <v>-0.04178161919116974</v>
       </c>
-      <c r="G100">
-        <v>-0.4287642240524292</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="J100">
+        <v>-0.02376602217555046</v>
+      </c>
+      <c r="K100">
+        <v>-0.07834519445896149</v>
+      </c>
+      <c r="L100">
+        <v>-0.04025805741548538</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -3150,22 +4662,37 @@
         <v>-0.01423223316669464</v>
       </c>
       <c r="C101">
+        <v>-0.06471711397171021</v>
+      </c>
+      <c r="D101">
+        <v>-0.05660131946206093</v>
+      </c>
+      <c r="E101">
+        <v>-0.1399645507335663</v>
+      </c>
+      <c r="F101">
         <v>-0.2203646600246429</v>
       </c>
-      <c r="D101">
+      <c r="G101">
         <v>-0.07790996134281158</v>
       </c>
-      <c r="E101">
+      <c r="H101">
         <v>-0.7853920459747314</v>
       </c>
-      <c r="F101">
+      <c r="I101">
         <v>-0.06322035193443298</v>
       </c>
-      <c r="G101">
-        <v>-0.5561174750328064</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="J101">
+        <v>-0.07790996134281158</v>
+      </c>
+      <c r="K101">
+        <v>-0.1721095889806747</v>
+      </c>
+      <c r="L101">
+        <v>-0.8460893630981445</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -3173,22 +4700,37 @@
         <v>-0.1000182032585144</v>
       </c>
       <c r="C102">
+        <v>-0.04500769078731537</v>
+      </c>
+      <c r="D102">
+        <v>-0.03767740353941917</v>
+      </c>
+      <c r="E102">
+        <v>-0.2029672563076019</v>
+      </c>
+      <c r="F102">
         <v>-0.01057693548500538</v>
       </c>
-      <c r="D102">
+      <c r="G102">
         <v>-0.0568130761384964</v>
       </c>
-      <c r="E102">
+      <c r="H102">
         <v>-0.4578083157539368</v>
       </c>
-      <c r="F102">
+      <c r="I102">
         <v>-0.04323520138859749</v>
       </c>
-      <c r="G102">
-        <v>-0.4035268127918243</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="J102">
+        <v>-0.0568130761384964</v>
+      </c>
+      <c r="K102">
+        <v>-0.1621249616146088</v>
+      </c>
+      <c r="L102">
+        <v>-0.2924666404724121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -3196,22 +4738,37 @@
         <v>-0.08210194110870361</v>
       </c>
       <c r="C103">
+        <v>-0.04004710540175438</v>
+      </c>
+      <c r="D103">
+        <v>-0.03930683806538582</v>
+      </c>
+      <c r="E103">
+        <v>-0.1441563963890076</v>
+      </c>
+      <c r="F103">
         <v>-0.1495717614889145</v>
       </c>
-      <c r="D103">
+      <c r="G103">
         <v>-0.04081396386027336</v>
       </c>
-      <c r="E103">
+      <c r="H103">
         <v>-0.3558001518249512</v>
       </c>
-      <c r="F103">
+      <c r="I103">
         <v>-0.06202822178602219</v>
       </c>
-      <c r="G103">
-        <v>-0.4469517767429352</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="J103">
+        <v>-0.04081396386027336</v>
+      </c>
+      <c r="K103">
+        <v>0.004387798253446817</v>
+      </c>
+      <c r="L103">
+        <v>0.3131797909736633</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -3219,22 +4776,37 @@
         <v>-0.2373621463775635</v>
       </c>
       <c r="C104">
+        <v>-0.1739396452903748</v>
+      </c>
+      <c r="D104">
+        <v>-0.01477329805493355</v>
+      </c>
+      <c r="E104">
+        <v>-0.1717837303876877</v>
+      </c>
+      <c r="F104">
         <v>-0.4357075095176697</v>
       </c>
-      <c r="D104">
+      <c r="G104">
         <v>-0.01790772192180157</v>
       </c>
-      <c r="E104">
+      <c r="H104">
         <v>-0.8195965886116028</v>
       </c>
-      <c r="F104">
+      <c r="I104">
         <v>-0.01773553155362606</v>
       </c>
-      <c r="G104">
-        <v>-0.437749058008194</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="J104">
+        <v>-0.01790772192180157</v>
+      </c>
+      <c r="K104">
+        <v>-0.1525076180696487</v>
+      </c>
+      <c r="L104">
+        <v>-0.4215905368328094</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -3242,22 +4814,37 @@
         <v>-0.002770730061456561</v>
       </c>
       <c r="C105">
+        <v>-0.08157436549663544</v>
+      </c>
+      <c r="D105">
+        <v>-0.04330440983176231</v>
+      </c>
+      <c r="E105">
+        <v>-0.2211857289075851</v>
+      </c>
+      <c r="F105">
         <v>-0.247526690363884</v>
       </c>
-      <c r="D105">
+      <c r="G105">
         <v>-0.07610456645488739</v>
       </c>
-      <c r="E105">
+      <c r="H105">
         <v>-0.8673272132873535</v>
       </c>
-      <c r="F105">
+      <c r="I105">
         <v>-0.0506162978708744</v>
       </c>
-      <c r="G105">
-        <v>-0.3275976181030273</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="J105">
+        <v>-0.07610456645488739</v>
+      </c>
+      <c r="K105">
+        <v>-0.1972057968378067</v>
+      </c>
+      <c r="L105">
+        <v>-0.4184544384479523</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -3265,22 +4852,37 @@
         <v>-0.158903107047081</v>
       </c>
       <c r="C106">
+        <v>-0.1466429978609085</v>
+      </c>
+      <c r="D106">
+        <v>-0.02556652203202248</v>
+      </c>
+      <c r="E106">
+        <v>-0.1595487296581268</v>
+      </c>
+      <c r="F106">
         <v>-0.3371281623840332</v>
       </c>
-      <c r="D106">
+      <c r="G106">
         <v>-0.02517082914710045</v>
       </c>
-      <c r="E106">
+      <c r="H106">
         <v>-0.8929015398025513</v>
       </c>
-      <c r="F106">
+      <c r="I106">
         <v>-0.04122826084494591</v>
       </c>
-      <c r="G106">
-        <v>-0.3614061772823334</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="J106">
+        <v>-0.02517082914710045</v>
+      </c>
+      <c r="K106">
+        <v>-0.1427870243787766</v>
+      </c>
+      <c r="L106">
+        <v>-0.442689448595047</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
@@ -3288,22 +4890,37 @@
         <v>-0.01206113025546074</v>
       </c>
       <c r="C107">
+        <v>-0.08593181520700455</v>
+      </c>
+      <c r="D107">
+        <v>-0.03742831572890282</v>
+      </c>
+      <c r="E107">
+        <v>-0.115005262196064</v>
+      </c>
+      <c r="F107">
         <v>-0.08826678246259689</v>
       </c>
-      <c r="D107">
+      <c r="G107">
         <v>-0.005730621982365847</v>
       </c>
-      <c r="E107">
+      <c r="H107">
         <v>-0.6260372400283813</v>
       </c>
-      <c r="F107">
+      <c r="I107">
         <v>-0.04111424461007118</v>
       </c>
-      <c r="G107">
-        <v>0.2254287302494049</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="J107">
+        <v>-0.005730621982365847</v>
+      </c>
+      <c r="K107">
+        <v>-0.06051453202962875</v>
+      </c>
+      <c r="L107">
+        <v>-0.4074647724628448</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -3311,22 +4928,37 @@
         <v>-0.02928415313363075</v>
       </c>
       <c r="C108">
+        <v>-0.05889401957392693</v>
+      </c>
+      <c r="D108">
+        <v>-0.04193684831261635</v>
+      </c>
+      <c r="E108">
+        <v>-0.1563377976417542</v>
+      </c>
+      <c r="F108">
         <v>-0.2091244757175446</v>
       </c>
-      <c r="D108">
+      <c r="G108">
         <v>-0.04548219963908195</v>
       </c>
-      <c r="E108">
+      <c r="H108">
         <v>-0.7338176965713501</v>
       </c>
-      <c r="F108">
+      <c r="I108">
         <v>-0.04806306585669518</v>
       </c>
-      <c r="G108">
-        <v>0.1587736010551453</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="J108">
+        <v>-0.04548219963908195</v>
+      </c>
+      <c r="K108">
+        <v>-0.194452702999115</v>
+      </c>
+      <c r="L108">
+        <v>-0.6439425945281982</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -3334,22 +4966,37 @@
         <v>-0.1093854457139969</v>
       </c>
       <c r="C109">
+        <v>-0.05891198664903641</v>
+      </c>
+      <c r="D109">
+        <v>-0.04422713443636894</v>
+      </c>
+      <c r="E109">
+        <v>-0.1350270360708237</v>
+      </c>
+      <c r="F109">
         <v>-0.07833411544561386</v>
       </c>
-      <c r="D109">
+      <c r="G109">
         <v>-0.05358815938234329</v>
       </c>
-      <c r="E109">
+      <c r="H109">
         <v>-0.4111769199371338</v>
       </c>
-      <c r="F109">
+      <c r="I109">
         <v>-0.04663892835378647</v>
       </c>
-      <c r="G109">
-        <v>-0.5324335098266602</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="J109">
+        <v>-0.05358815938234329</v>
+      </c>
+      <c r="K109">
+        <v>-0.1581843793392181</v>
+      </c>
+      <c r="L109">
+        <v>-0.3810662925243378</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -3357,22 +5004,37 @@
         <v>-0.1884267777204514</v>
       </c>
       <c r="C110">
+        <v>-0.1836587637662888</v>
+      </c>
+      <c r="D110">
+        <v>-0.06104450672864914</v>
+      </c>
+      <c r="E110">
+        <v>-0.2002754658460617</v>
+      </c>
+      <c r="F110">
         <v>-0.3236584365367889</v>
       </c>
-      <c r="D110">
+      <c r="G110">
         <v>-0.0533219538629055</v>
       </c>
-      <c r="E110">
+      <c r="H110">
         <v>-0.9577172994613647</v>
       </c>
-      <c r="F110">
+      <c r="I110">
         <v>-0.06761616468429565</v>
       </c>
-      <c r="G110">
-        <v>-0.2517512142658234</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="J110">
+        <v>-0.0533219538629055</v>
+      </c>
+      <c r="K110">
+        <v>-0.240056574344635</v>
+      </c>
+      <c r="L110">
+        <v>-0.437279999256134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -3380,22 +5042,37 @@
         <v>-0.09445682168006897</v>
       </c>
       <c r="C111">
+        <v>-0.1656645983457565</v>
+      </c>
+      <c r="D111">
+        <v>-0.01668424345552921</v>
+      </c>
+      <c r="E111">
+        <v>-0.1718519479036331</v>
+      </c>
+      <c r="F111">
         <v>-0.2977251410484314</v>
       </c>
-      <c r="D111">
+      <c r="G111">
         <v>-0.02529402263462543</v>
       </c>
-      <c r="E111">
+      <c r="H111">
         <v>-0.6974019408226013</v>
       </c>
-      <c r="F111">
+      <c r="I111">
         <v>-0.04356328397989273</v>
       </c>
-      <c r="G111">
-        <v>0.247573509812355</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="J111">
+        <v>-0.02529402263462543</v>
+      </c>
+      <c r="K111">
+        <v>-0.1436109393835068</v>
+      </c>
+      <c r="L111">
+        <v>0.382301539182663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -3403,22 +5080,37 @@
         <v>-0.05316292122006416</v>
       </c>
       <c r="C112">
+        <v>-0.1874909400939941</v>
+      </c>
+      <c r="D112">
+        <v>-0.03567151352763176</v>
+      </c>
+      <c r="E112">
+        <v>-0.1673817932605743</v>
+      </c>
+      <c r="F112">
         <v>-0.03582653775811195</v>
       </c>
-      <c r="D112">
+      <c r="G112">
         <v>-0.01440362259745598</v>
       </c>
-      <c r="E112">
+      <c r="H112">
         <v>-0.6243677139282227</v>
       </c>
-      <c r="F112">
+      <c r="I112">
         <v>-0.07572954893112183</v>
       </c>
-      <c r="G112">
-        <v>-0.6834979653358459</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="J112">
+        <v>-0.01440362259745598</v>
+      </c>
+      <c r="K112">
+        <v>-0.02244185470044613</v>
+      </c>
+      <c r="L112">
+        <v>-0.3321062624454498</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -3426,22 +5118,37 @@
         <v>-0.1236803382635117</v>
       </c>
       <c r="C113">
+        <v>-0.03820672631263733</v>
+      </c>
+      <c r="D113">
+        <v>0.008164351806044579</v>
+      </c>
+      <c r="E113">
+        <v>-0.1715939044952393</v>
+      </c>
+      <c r="F113">
         <v>-0.05611494183540344</v>
       </c>
-      <c r="D113">
+      <c r="G113">
         <v>-0.04911034554243088</v>
       </c>
-      <c r="E113">
+      <c r="H113">
         <v>-0.4378410577774048</v>
       </c>
-      <c r="F113">
+      <c r="I113">
         <v>-0.04098669067025185</v>
       </c>
-      <c r="G113">
-        <v>-0.4930082261562347</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="J113">
+        <v>-0.04911034554243088</v>
+      </c>
+      <c r="K113">
+        <v>-0.1601049304008484</v>
+      </c>
+      <c r="L113">
+        <v>-0.1748326271772385</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -3449,22 +5156,37 @@
         <v>-0.03680549189448357</v>
       </c>
       <c r="C114">
+        <v>-0.1243613287806511</v>
+      </c>
+      <c r="D114">
+        <v>-0.003613617038354278</v>
+      </c>
+      <c r="E114">
+        <v>-0.1899641305208206</v>
+      </c>
+      <c r="F114">
         <v>-0.01538613066077232</v>
       </c>
-      <c r="D114">
+      <c r="G114">
         <v>0.01641412638127804</v>
       </c>
-      <c r="E114">
+      <c r="H114">
         <v>-0.6304261684417725</v>
       </c>
-      <c r="F114">
+      <c r="I114">
         <v>-0.07524549961090088</v>
       </c>
-      <c r="G114">
-        <v>0.04240395128726959</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="J114">
+        <v>0.01641412638127804</v>
+      </c>
+      <c r="K114">
+        <v>-0.1885810941457748</v>
+      </c>
+      <c r="L114">
+        <v>-0.6624206900596619</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -3472,22 +5194,37 @@
         <v>-0.09877939522266388</v>
       </c>
       <c r="C115">
+        <v>-0.05071466788649559</v>
+      </c>
+      <c r="D115">
+        <v>-0.05084375664591789</v>
+      </c>
+      <c r="E115">
+        <v>-0.1236424595117569</v>
+      </c>
+      <c r="F115">
         <v>-0.06408338993787766</v>
       </c>
-      <c r="D115">
+      <c r="G115">
         <v>-0.02097776532173157</v>
       </c>
-      <c r="E115">
+      <c r="H115">
         <v>-0.4013505280017853</v>
       </c>
-      <c r="F115">
+      <c r="I115">
         <v>-0.04561706259846687</v>
       </c>
-      <c r="G115">
-        <v>-0.1976345181465149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="J115">
+        <v>-0.02097776532173157</v>
+      </c>
+      <c r="K115">
+        <v>-0.1452949643135071</v>
+      </c>
+      <c r="L115">
+        <v>-0.4401058256626129</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -3495,22 +5232,37 @@
         <v>-0.0580211766064167</v>
       </c>
       <c r="C116">
+        <v>-0.09673890471458435</v>
+      </c>
+      <c r="D116">
+        <v>-0.01796277053654194</v>
+      </c>
+      <c r="E116">
+        <v>-0.1494464576244354</v>
+      </c>
+      <c r="F116">
         <v>-0.03632350638508797</v>
       </c>
-      <c r="D116">
+      <c r="G116">
         <v>0.005306617822498083</v>
       </c>
-      <c r="E116">
+      <c r="H116">
         <v>-0.6696128845214844</v>
       </c>
-      <c r="F116">
+      <c r="I116">
         <v>-0.04950540885329247</v>
       </c>
-      <c r="G116">
-        <v>0.3854551017284393</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="J116">
+        <v>0.005306617822498083</v>
+      </c>
+      <c r="K116">
+        <v>-0.1773552447557449</v>
+      </c>
+      <c r="L116">
+        <v>-0.4344718158245087</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -3518,22 +5270,37 @@
         <v>-0.06204937770962715</v>
       </c>
       <c r="C117">
+        <v>-0.1173331886529922</v>
+      </c>
+      <c r="D117">
+        <v>-0.02339695207774639</v>
+      </c>
+      <c r="E117">
+        <v>-0.1132464185357094</v>
+      </c>
+      <c r="F117">
         <v>-0.2132198810577393</v>
       </c>
-      <c r="D117">
+      <c r="G117">
         <v>-0.0483301542699337</v>
       </c>
-      <c r="E117">
+      <c r="H117">
         <v>-0.7476524114608765</v>
       </c>
-      <c r="F117">
+      <c r="I117">
         <v>-0.05771069973707199</v>
       </c>
-      <c r="G117">
-        <v>-0.288039356470108</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="J117">
+        <v>-0.0483301542699337</v>
+      </c>
+      <c r="K117">
+        <v>-0.09069741517305374</v>
+      </c>
+      <c r="L117">
+        <v>-0.2870417237281799</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -3541,22 +5308,37 @@
         <v>0.03854760900139809</v>
       </c>
       <c r="C118">
+        <v>-0.08375139534473419</v>
+      </c>
+      <c r="D118">
+        <v>-0.05156922340393066</v>
+      </c>
+      <c r="E118">
+        <v>-0.1122170612215996</v>
+      </c>
+      <c r="F118">
         <v>-0.2747856676578522</v>
       </c>
-      <c r="D118">
+      <c r="G118">
         <v>-0.07242532074451447</v>
       </c>
-      <c r="E118">
+      <c r="H118">
         <v>-0.7770536541938782</v>
       </c>
-      <c r="F118">
+      <c r="I118">
         <v>-0.04381898790597916</v>
       </c>
-      <c r="G118">
-        <v>-0.01623144187033176</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="J118">
+        <v>-0.07242532074451447</v>
+      </c>
+      <c r="K118">
+        <v>-0.1447815746068954</v>
+      </c>
+      <c r="L118">
+        <v>-0.3413191437721252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -3564,22 +5346,37 @@
         <v>0.003314253874123096</v>
       </c>
       <c r="C119">
+        <v>-0.08785291761159897</v>
+      </c>
+      <c r="D119">
+        <v>-0.01929495111107826</v>
+      </c>
+      <c r="E119">
+        <v>-0.1929258704185486</v>
+      </c>
+      <c r="F119">
         <v>-0.05724377557635307</v>
       </c>
-      <c r="D119">
+      <c r="G119">
         <v>-0.04038336500525475</v>
       </c>
-      <c r="E119">
+      <c r="H119">
         <v>-0.6031481623649597</v>
       </c>
-      <c r="F119">
+      <c r="I119">
         <v>-0.04195186868309975</v>
       </c>
-      <c r="G119">
-        <v>0.1399278491735458</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="J119">
+        <v>-0.04038336500525475</v>
+      </c>
+      <c r="K119">
+        <v>-0.08274795114994049</v>
+      </c>
+      <c r="L119">
+        <v>-0.09821627289056778</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -3587,22 +5384,37 @@
         <v>0.03112107329070568</v>
       </c>
       <c r="C120">
+        <v>-0.1419607847929001</v>
+      </c>
+      <c r="D120">
+        <v>-0.06822586059570312</v>
+      </c>
+      <c r="E120">
+        <v>-0.1419321000576019</v>
+      </c>
+      <c r="F120">
         <v>-0.2517447471618652</v>
       </c>
-      <c r="D120">
+      <c r="G120">
         <v>-0.03733913227915764</v>
       </c>
-      <c r="E120">
+      <c r="H120">
         <v>0.0103154880926013</v>
       </c>
-      <c r="F120">
+      <c r="I120">
         <v>-0.04716236516833305</v>
       </c>
-      <c r="G120">
-        <v>0.2637167572975159</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="J120">
+        <v>-0.03733913227915764</v>
+      </c>
+      <c r="K120">
+        <v>-0.2517355680465698</v>
+      </c>
+      <c r="L120">
+        <v>-0.4264801740646362</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -3610,22 +5422,37 @@
         <v>-0.1590244323015213</v>
       </c>
       <c r="C121">
+        <v>-0.06676073372364044</v>
+      </c>
+      <c r="D121">
+        <v>-0.04870038852095604</v>
+      </c>
+      <c r="E121">
+        <v>-0.1823484003543854</v>
+      </c>
+      <c r="F121">
         <v>-0.2353880554437637</v>
       </c>
-      <c r="D121">
+      <c r="G121">
         <v>-0.07410809397697449</v>
       </c>
-      <c r="E121">
+      <c r="H121">
         <v>-0.5051935911178589</v>
       </c>
-      <c r="F121">
+      <c r="I121">
         <v>-0.02913322672247887</v>
       </c>
-      <c r="G121">
-        <v>-0.4129874706268311</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="J121">
+        <v>-0.07410809397697449</v>
+      </c>
+      <c r="K121">
+        <v>-0.1971690654754639</v>
+      </c>
+      <c r="L121">
+        <v>-0.146512970328331</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -3633,22 +5460,37 @@
         <v>-0.121561773121357</v>
       </c>
       <c r="C122">
+        <v>-0.09857814759016037</v>
+      </c>
+      <c r="D122">
+        <v>-0.02353040128946304</v>
+      </c>
+      <c r="E122">
+        <v>-0.1939985901117325</v>
+      </c>
+      <c r="F122">
         <v>-0.3701724112033844</v>
       </c>
-      <c r="D122">
+      <c r="G122">
         <v>-0.1290422379970551</v>
       </c>
-      <c r="E122">
+      <c r="H122">
         <v>-0.6350505948066711</v>
       </c>
-      <c r="F122">
+      <c r="I122">
         <v>-0.03062772937119007</v>
       </c>
-      <c r="G122">
-        <v>-0.3795271217823029</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="J122">
+        <v>-0.1290422379970551</v>
+      </c>
+      <c r="K122">
+        <v>-0.1829847991466522</v>
+      </c>
+      <c r="L122">
+        <v>-0.4263486266136169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -3656,22 +5498,37 @@
         <v>-0.06192184239625931</v>
       </c>
       <c r="C123">
+        <v>-0.1783938705921173</v>
+      </c>
+      <c r="D123">
+        <v>-0.04188456013798714</v>
+      </c>
+      <c r="E123">
+        <v>-0.1889530569314957</v>
+      </c>
+      <c r="F123">
         <v>-0.1970213800668716</v>
       </c>
-      <c r="D123">
+      <c r="G123">
         <v>-0.0575527623295784</v>
       </c>
-      <c r="E123">
+      <c r="H123">
         <v>-0.5775904059410095</v>
       </c>
-      <c r="F123">
+      <c r="I123">
         <v>-0.01803212054073811</v>
       </c>
-      <c r="G123">
-        <v>-0.2220978885889053</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="J123">
+        <v>-0.0575527623295784</v>
+      </c>
+      <c r="K123">
+        <v>-0.176032692193985</v>
+      </c>
+      <c r="L123">
+        <v>-0.182787224650383</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -3679,22 +5536,37 @@
         <v>-0.009204738773405552</v>
       </c>
       <c r="C124">
+        <v>-0.1286087334156036</v>
+      </c>
+      <c r="D124">
+        <v>-0.03619197010993958</v>
+      </c>
+      <c r="E124">
+        <v>-0.1504290252923965</v>
+      </c>
+      <c r="F124">
         <v>0.0385587066411972</v>
       </c>
-      <c r="D124">
+      <c r="G124">
         <v>-0.009229687042534351</v>
       </c>
-      <c r="E124">
+      <c r="H124">
         <v>-0.6668300628662109</v>
       </c>
-      <c r="F124">
+      <c r="I124">
         <v>-0.02192210406064987</v>
       </c>
-      <c r="G124">
-        <v>0.2701716125011444</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="J124">
+        <v>-0.009229687042534351</v>
+      </c>
+      <c r="K124">
+        <v>-0.1612076759338379</v>
+      </c>
+      <c r="L124">
+        <v>-0.4395935833454132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -3702,22 +5574,37 @@
         <v>-0.1520762592554092</v>
       </c>
       <c r="C125">
+        <v>-0.06383076310157776</v>
+      </c>
+      <c r="D125">
+        <v>-0.004265552386641502</v>
+      </c>
+      <c r="E125">
+        <v>-0.184971958398819</v>
+      </c>
+      <c r="F125">
         <v>-0.235479474067688</v>
       </c>
-      <c r="D125">
+      <c r="G125">
         <v>-0.04538122564554214</v>
       </c>
-      <c r="E125">
+      <c r="H125">
         <v>-0.56365567445755</v>
       </c>
-      <c r="F125">
+      <c r="I125">
         <v>-0.03446115925908089</v>
       </c>
-      <c r="G125">
-        <v>0.001397949061356485</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="J125">
+        <v>-0.04538122564554214</v>
+      </c>
+      <c r="K125">
+        <v>-0.1990288496017456</v>
+      </c>
+      <c r="L125">
+        <v>0.1074185594916344</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -3725,22 +5612,37 @@
         <v>-0.01444920618087053</v>
       </c>
       <c r="C126">
+        <v>-0.1016021892428398</v>
+      </c>
+      <c r="D126">
+        <v>-0.03286195546388626</v>
+      </c>
+      <c r="E126">
+        <v>-0.1724624335765839</v>
+      </c>
+      <c r="F126">
         <v>-0.03461200371384621</v>
       </c>
-      <c r="D126">
+      <c r="G126">
         <v>-0.03205549344420433</v>
       </c>
-      <c r="E126">
+      <c r="H126">
         <v>-0.6433150768280029</v>
       </c>
-      <c r="F126">
+      <c r="I126">
         <v>-0.04536594077944756</v>
       </c>
-      <c r="G126">
-        <v>0.1748176664113998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="J126">
+        <v>-0.03205549344420433</v>
+      </c>
+      <c r="K126">
+        <v>-0.128910630941391</v>
+      </c>
+      <c r="L126">
+        <v>-0.2833919823169708</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -3748,22 +5650,37 @@
         <v>-0.1012916415929794</v>
       </c>
       <c r="C127">
+        <v>-0.1300348490476608</v>
+      </c>
+      <c r="D127">
+        <v>-0.02461683563888073</v>
+      </c>
+      <c r="E127">
+        <v>-0.1743605732917786</v>
+      </c>
+      <c r="F127">
         <v>-0.2429250031709671</v>
       </c>
-      <c r="D127">
+      <c r="G127">
         <v>0.006932801567018032</v>
       </c>
-      <c r="E127">
+      <c r="H127">
         <v>-0.6052809357643127</v>
       </c>
-      <c r="F127">
+      <c r="I127">
         <v>-0.03430205211043358</v>
       </c>
-      <c r="G127">
-        <v>-0.1225299909710884</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="J127">
+        <v>0.006932801567018032</v>
+      </c>
+      <c r="K127">
+        <v>-0.2445752024650574</v>
+      </c>
+      <c r="L127">
+        <v>-0.6784704327583313</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -3771,22 +5688,37 @@
         <v>0.04941759258508682</v>
       </c>
       <c r="C128">
+        <v>-0.1225588694214821</v>
+      </c>
+      <c r="D128">
+        <v>-0.0331173799932003</v>
+      </c>
+      <c r="E128">
+        <v>-0.2025347054004669</v>
+      </c>
+      <c r="F128">
         <v>-0.2168321758508682</v>
       </c>
-      <c r="D128">
+      <c r="G128">
         <v>-0.02830486185848713</v>
       </c>
-      <c r="E128">
+      <c r="H128">
         <v>-0.835432767868042</v>
       </c>
-      <c r="F128">
+      <c r="I128">
         <v>-0.04195282235741615</v>
       </c>
-      <c r="G128">
-        <v>0.7731286883354187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="J128">
+        <v>-0.02830486185848713</v>
+      </c>
+      <c r="K128">
+        <v>-0.04149555787444115</v>
+      </c>
+      <c r="L128">
+        <v>0.1105782985687256</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -3794,22 +5726,37 @@
         <v>0.07161300629377365</v>
       </c>
       <c r="C129">
+        <v>-0.004660589154809713</v>
+      </c>
+      <c r="D129">
+        <v>-0.05480271950364113</v>
+      </c>
+      <c r="E129">
+        <v>-0.1707269251346588</v>
+      </c>
+      <c r="F129">
         <v>0.07119429856538773</v>
       </c>
-      <c r="D129">
+      <c r="G129">
         <v>-0.09566565603017807</v>
       </c>
-      <c r="E129">
+      <c r="H129">
         <v>-0.2658587694168091</v>
       </c>
-      <c r="F129">
+      <c r="I129">
         <v>-0.03087522648274899</v>
       </c>
-      <c r="G129">
-        <v>-0.1957338452339172</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="J129">
+        <v>-0.09566565603017807</v>
+      </c>
+      <c r="K129">
+        <v>-0.06586028635501862</v>
+      </c>
+      <c r="L129">
+        <v>-0.5401349663734436</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -3817,22 +5764,37 @@
         <v>-0.03162077069282532</v>
       </c>
       <c r="C130">
+        <v>-0.1345726400613785</v>
+      </c>
+      <c r="D130">
+        <v>-0.04056613147258759</v>
+      </c>
+      <c r="E130">
+        <v>-0.196294441819191</v>
+      </c>
+      <c r="F130">
         <v>0.1418662071228027</v>
       </c>
-      <c r="D130">
+      <c r="G130">
         <v>0.01398618519306183</v>
       </c>
-      <c r="E130">
+      <c r="H130">
         <v>-0.7157405018806458</v>
       </c>
-      <c r="F130">
+      <c r="I130">
         <v>-0.06137469783425331</v>
       </c>
-      <c r="G130">
-        <v>0.1453651636838913</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="J130">
+        <v>0.01398618519306183</v>
+      </c>
+      <c r="K130">
+        <v>-0.0785982608795166</v>
+      </c>
+      <c r="L130">
+        <v>-0.4369241297245026</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -3840,22 +5802,37 @@
         <v>-0.02508734725415707</v>
       </c>
       <c r="C131">
+        <v>-0.1723861843347549</v>
+      </c>
+      <c r="D131">
+        <v>-0.02641613595187664</v>
+      </c>
+      <c r="E131">
+        <v>-0.1597370505332947</v>
+      </c>
+      <c r="F131">
         <v>-0.5656710267066956</v>
       </c>
-      <c r="D131">
+      <c r="G131">
         <v>-0.08588908612728119</v>
       </c>
-      <c r="E131">
+      <c r="H131">
         <v>-0.8372582793235779</v>
       </c>
-      <c r="F131">
+      <c r="I131">
         <v>-0.06017756462097168</v>
       </c>
-      <c r="G131">
-        <v>-0.3014062643051147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="J131">
+        <v>-0.08588908612728119</v>
+      </c>
+      <c r="K131">
+        <v>-0.2590620517730713</v>
+      </c>
+      <c r="L131">
+        <v>-0.419664591550827</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -3863,22 +5840,37 @@
         <v>-0.03008314408361912</v>
       </c>
       <c r="C132">
+        <v>-0.04585234448313713</v>
+      </c>
+      <c r="D132">
+        <v>-0.05508507415652275</v>
+      </c>
+      <c r="E132">
+        <v>-0.1874247193336487</v>
+      </c>
+      <c r="F132">
         <v>-0.0701211541891098</v>
       </c>
-      <c r="D132">
+      <c r="G132">
         <v>-0.08103777468204498</v>
       </c>
-      <c r="E132">
+      <c r="H132">
         <v>-0.1789554804563522</v>
       </c>
-      <c r="F132">
+      <c r="I132">
         <v>-0.04482518136501312</v>
       </c>
-      <c r="G132">
-        <v>-0.2560105323791504</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="J132">
+        <v>-0.08103777468204498</v>
+      </c>
+      <c r="K132">
+        <v>-0.1253820508718491</v>
+      </c>
+      <c r="L132">
+        <v>-0.3457121551036835</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -3886,22 +5878,37 @@
         <v>-0.07239124923944473</v>
       </c>
       <c r="C133">
+        <v>-0.1683927476406097</v>
+      </c>
+      <c r="D133">
+        <v>-0.03356781229376793</v>
+      </c>
+      <c r="E133">
+        <v>-0.1798422485589981</v>
+      </c>
+      <c r="F133">
         <v>-0.3961602449417114</v>
       </c>
-      <c r="D133">
+      <c r="G133">
         <v>-0.05266954004764557</v>
       </c>
-      <c r="E133">
+      <c r="H133">
         <v>-0.822016179561615</v>
       </c>
-      <c r="F133">
+      <c r="I133">
         <v>-0.04767376929521561</v>
       </c>
-      <c r="G133">
-        <v>0.1539369523525238</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="J133">
+        <v>-0.05266954004764557</v>
+      </c>
+      <c r="K133">
+        <v>-0.09565750509500504</v>
+      </c>
+      <c r="L133">
+        <v>-0.03863168135285378</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -3909,22 +5916,37 @@
         <v>0.01455875765532255</v>
       </c>
       <c r="C134">
+        <v>-0.1487249583005905</v>
+      </c>
+      <c r="D134">
+        <v>-0.01968221738934517</v>
+      </c>
+      <c r="E134">
+        <v>-0.1505224853754044</v>
+      </c>
+      <c r="F134">
         <v>-0.07006177306175232</v>
       </c>
-      <c r="D134">
+      <c r="G134">
         <v>-0.03959144279360771</v>
       </c>
-      <c r="E134">
+      <c r="H134">
         <v>-0.3339676260948181</v>
       </c>
-      <c r="F134">
+      <c r="I134">
         <v>-0.02577896602451801</v>
       </c>
-      <c r="G134">
-        <v>0.4222708940505981</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="J134">
+        <v>-0.03959144279360771</v>
+      </c>
+      <c r="K134">
+        <v>-0.09974517673254013</v>
+      </c>
+      <c r="L134">
+        <v>-0.07135094702243805</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -3932,22 +5954,37 @@
         <v>-0.05623677745461464</v>
       </c>
       <c r="C135">
+        <v>-0.2259045988321304</v>
+      </c>
+      <c r="D135">
+        <v>0.01521784160286188</v>
+      </c>
+      <c r="E135">
+        <v>-0.1815365850925446</v>
+      </c>
+      <c r="F135">
         <v>-0.4524446129798889</v>
       </c>
-      <c r="D135">
+      <c r="G135">
         <v>-0.0144073823466897</v>
       </c>
-      <c r="E135">
+      <c r="H135">
         <v>-0.8080629110336304</v>
       </c>
-      <c r="F135">
+      <c r="I135">
         <v>-0.03297927603125572</v>
       </c>
-      <c r="G135">
-        <v>0.162321150302887</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="J135">
+        <v>-0.0144073823466897</v>
+      </c>
+      <c r="K135">
+        <v>-0.3491322100162506</v>
+      </c>
+      <c r="L135">
+        <v>-0.81503826379776</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
@@ -3955,22 +5992,37 @@
         <v>-0.05307044088840485</v>
       </c>
       <c r="C136">
+        <v>-0.09108273684978485</v>
+      </c>
+      <c r="D136">
+        <v>-0.02529403381049633</v>
+      </c>
+      <c r="E136">
+        <v>-0.189172625541687</v>
+      </c>
+      <c r="F136">
         <v>0.2056753188371658</v>
       </c>
-      <c r="D136">
+      <c r="G136">
         <v>-0.004218966700136662</v>
       </c>
-      <c r="E136">
+      <c r="H136">
         <v>-0.4776273369789124</v>
       </c>
-      <c r="F136">
+      <c r="I136">
         <v>-0.05768903344869614</v>
       </c>
-      <c r="G136">
-        <v>-0.2356593757867813</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="J136">
+        <v>-0.004218966700136662</v>
+      </c>
+      <c r="K136">
+        <v>-0.05380866304039955</v>
+      </c>
+      <c r="L136">
+        <v>-0.3769603669643402</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -3978,22 +6030,37 @@
         <v>-0.0439709834754467</v>
       </c>
       <c r="C137">
+        <v>-0.1270373165607452</v>
+      </c>
+      <c r="D137">
+        <v>-0.0184841975569725</v>
+      </c>
+      <c r="E137">
+        <v>-0.1611624211072922</v>
+      </c>
+      <c r="F137">
         <v>-0.1414861232042313</v>
       </c>
-      <c r="D137">
+      <c r="G137">
         <v>-0.01776186190545559</v>
       </c>
-      <c r="E137">
+      <c r="H137">
         <v>-0.529628574848175</v>
       </c>
-      <c r="F137">
+      <c r="I137">
         <v>-0.04488751664757729</v>
       </c>
-      <c r="G137">
-        <v>-0.3446870744228363</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="J137">
+        <v>-0.01776186190545559</v>
+      </c>
+      <c r="K137">
+        <v>-0.04976189136505127</v>
+      </c>
+      <c r="L137">
+        <v>-0.4430725276470184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
@@ -4001,22 +6068,37 @@
         <v>-0.0198766216635704</v>
       </c>
       <c r="C138">
+        <v>-0.1550815254449844</v>
+      </c>
+      <c r="D138">
+        <v>-0.04720811173319817</v>
+      </c>
+      <c r="E138">
+        <v>-0.1833471059799194</v>
+      </c>
+      <c r="F138">
         <v>-0.1051826030015945</v>
       </c>
-      <c r="D138">
+      <c r="G138">
         <v>-0.04852357506752014</v>
       </c>
-      <c r="E138">
+      <c r="H138">
         <v>-0.7134090065956116</v>
       </c>
-      <c r="F138">
+      <c r="I138">
         <v>-0.06975520402193069</v>
       </c>
-      <c r="G138">
-        <v>-0.1242935732007027</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="J138">
+        <v>-0.04852357506752014</v>
+      </c>
+      <c r="K138">
+        <v>-0.03415647521615028</v>
+      </c>
+      <c r="L138">
+        <v>0.09765245765447617</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
@@ -4024,22 +6106,37 @@
         <v>-0.01488269213587046</v>
       </c>
       <c r="C139">
+        <v>-0.09086219966411591</v>
+      </c>
+      <c r="D139">
+        <v>-0.01560577191412449</v>
+      </c>
+      <c r="E139">
+        <v>-0.1581584066152573</v>
+      </c>
+      <c r="F139">
         <v>0.2555499970912933</v>
       </c>
-      <c r="D139">
+      <c r="G139">
         <v>-0.002685270039364696</v>
       </c>
-      <c r="E139">
+      <c r="H139">
         <v>-0.2517344355583191</v>
       </c>
-      <c r="F139">
+      <c r="I139">
         <v>-0.04078365489840508</v>
       </c>
-      <c r="G139">
-        <v>-0.36872199177742</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="J139">
+        <v>-0.002685270039364696</v>
+      </c>
+      <c r="K139">
+        <v>0.007863141596317291</v>
+      </c>
+      <c r="L139">
+        <v>-0.4367581307888031</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
@@ -4047,22 +6144,37 @@
         <v>-0.09410769492387772</v>
       </c>
       <c r="C140">
+        <v>-0.02585742063820362</v>
+      </c>
+      <c r="D140">
+        <v>-0.05102461576461792</v>
+      </c>
+      <c r="E140">
+        <v>-0.174049511551857</v>
+      </c>
+      <c r="F140">
         <v>-0.04058956354856491</v>
       </c>
-      <c r="D140">
+      <c r="G140">
         <v>-0.01915537193417549</v>
       </c>
-      <c r="E140">
+      <c r="H140">
         <v>-0.2876774370670319</v>
       </c>
-      <c r="F140">
+      <c r="I140">
         <v>-0.04862311109900475</v>
       </c>
-      <c r="G140">
-        <v>-0.3526135683059692</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="J140">
+        <v>-0.01915537193417549</v>
+      </c>
+      <c r="K140">
+        <v>-0.1432101130485535</v>
+      </c>
+      <c r="L140">
+        <v>-0.4945904612541199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
@@ -4070,22 +6182,37 @@
         <v>0.1468724310398102</v>
       </c>
       <c r="C141">
+        <v>-0.1818088293075562</v>
+      </c>
+      <c r="D141">
+        <v>-0.02990291267633438</v>
+      </c>
+      <c r="E141">
+        <v>-0.2150636613368988</v>
+      </c>
+      <c r="F141">
         <v>-0.3137518465518951</v>
       </c>
-      <c r="D141">
+      <c r="G141">
         <v>-0.05933138355612755</v>
       </c>
-      <c r="E141">
+      <c r="H141">
         <v>-0.8122118711471558</v>
       </c>
-      <c r="F141">
+      <c r="I141">
         <v>-0.05283463373780251</v>
       </c>
-      <c r="G141">
-        <v>0.6832511425018311</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="J141">
+        <v>-0.05933138355612755</v>
+      </c>
+      <c r="K141">
+        <v>-0.2353593558073044</v>
+      </c>
+      <c r="L141">
+        <v>-0.7322715520858765</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
@@ -4093,22 +6220,37 @@
         <v>0.04847541078925133</v>
       </c>
       <c r="C142">
+        <v>-0.1929627656936646</v>
+      </c>
+      <c r="D142">
+        <v>-0.02782834880053997</v>
+      </c>
+      <c r="E142">
+        <v>-0.1949636042118073</v>
+      </c>
+      <c r="F142">
         <v>-0.1094613969326019</v>
       </c>
-      <c r="D142">
+      <c r="G142">
         <v>-0.07695703208446503</v>
       </c>
-      <c r="E142">
+      <c r="H142">
         <v>-0.8399109244346619</v>
       </c>
-      <c r="F142">
+      <c r="I142">
         <v>-0.05362169072031975</v>
       </c>
-      <c r="G142">
-        <v>-0.06054847687482834</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="J142">
+        <v>-0.07695703208446503</v>
+      </c>
+      <c r="K142">
+        <v>-0.1999297142028809</v>
+      </c>
+      <c r="L142">
+        <v>-0.5118294954299927</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
@@ -4116,22 +6258,37 @@
         <v>-0.001930035417899489</v>
       </c>
       <c r="C143">
+        <v>-0.1317015588283539</v>
+      </c>
+      <c r="D143">
+        <v>-0.05371236056089401</v>
+      </c>
+      <c r="E143">
+        <v>-0.2371147871017456</v>
+      </c>
+      <c r="F143">
         <v>0.03856534138321877</v>
       </c>
-      <c r="D143">
+      <c r="G143">
         <v>-0.01167203858494759</v>
       </c>
-      <c r="E143">
+      <c r="H143">
         <v>-0.7419424653053284</v>
       </c>
-      <c r="F143">
+      <c r="I143">
         <v>-0.02868380770087242</v>
       </c>
-      <c r="G143">
-        <v>-0.1062821447849274</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="J143">
+        <v>-0.01167203858494759</v>
+      </c>
+      <c r="K143">
+        <v>-0.1430820524692535</v>
+      </c>
+      <c r="L143">
+        <v>-0.1890635937452316</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
@@ -4139,22 +6296,37 @@
         <v>-0.008831468410789967</v>
       </c>
       <c r="C144">
+        <v>-0.1304813474416733</v>
+      </c>
+      <c r="D144">
+        <v>-0.04858312755823135</v>
+      </c>
+      <c r="E144">
+        <v>-0.155936136841774</v>
+      </c>
+      <c r="F144">
         <v>-0.08375561982393265</v>
       </c>
-      <c r="D144">
+      <c r="G144">
         <v>-0.0171016026288271</v>
       </c>
-      <c r="E144">
+      <c r="H144">
         <v>-0.8569096326828003</v>
       </c>
-      <c r="F144">
+      <c r="I144">
         <v>-0.02521639876067638</v>
       </c>
-      <c r="G144">
-        <v>0.1859003603458405</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="J144">
+        <v>-0.0171016026288271</v>
+      </c>
+      <c r="K144">
+        <v>-0.1286427229642868</v>
+      </c>
+      <c r="L144">
+        <v>-0.3393063545227051</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
@@ -4162,22 +6334,37 @@
         <v>-0.1290319859981537</v>
       </c>
       <c r="C145">
+        <v>-0.1471222788095474</v>
+      </c>
+      <c r="D145">
+        <v>-0.04080593585968018</v>
+      </c>
+      <c r="E145">
+        <v>-0.1823266893625259</v>
+      </c>
+      <c r="F145">
         <v>-0.2976897060871124</v>
       </c>
-      <c r="D145">
+      <c r="G145">
         <v>-0.05839600041508675</v>
       </c>
-      <c r="E145">
+      <c r="H145">
         <v>-0.8319227695465088</v>
       </c>
-      <c r="F145">
+      <c r="I145">
         <v>-0.08427228033542633</v>
       </c>
-      <c r="G145">
-        <v>0.06102849543094635</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="J145">
+        <v>-0.05839600041508675</v>
+      </c>
+      <c r="K145">
+        <v>-0.1577942222356796</v>
+      </c>
+      <c r="L145">
+        <v>-0.3026215434074402</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
@@ -4185,22 +6372,37 @@
         <v>0.1001545786857605</v>
       </c>
       <c r="C146">
+        <v>-0.1893573999404907</v>
+      </c>
+      <c r="D146">
+        <v>0.01579514518380165</v>
+      </c>
+      <c r="E146">
+        <v>-0.1862127780914307</v>
+      </c>
+      <c r="F146">
         <v>-0.1521017253398895</v>
       </c>
-      <c r="D146">
+      <c r="G146">
         <v>-0.002791674807667732</v>
       </c>
-      <c r="E146">
+      <c r="H146">
         <v>-0.9188388586044312</v>
       </c>
-      <c r="F146">
+      <c r="I146">
         <v>-0.04594637081027031</v>
       </c>
-      <c r="G146">
-        <v>0.08121673762798309</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="J146">
+        <v>-0.002791674807667732</v>
+      </c>
+      <c r="K146">
+        <v>-0.1540569961071014</v>
+      </c>
+      <c r="L146">
+        <v>-0.09003241360187531</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -4208,22 +6410,37 @@
         <v>-0.06179195269942284</v>
       </c>
       <c r="C147">
+        <v>-0.1274199634790421</v>
+      </c>
+      <c r="D147">
+        <v>0.002414134563878179</v>
+      </c>
+      <c r="E147">
+        <v>-0.1758412569761276</v>
+      </c>
+      <c r="F147">
         <v>-0.1168358325958252</v>
       </c>
-      <c r="D147">
+      <c r="G147">
         <v>-0.01272487640380859</v>
       </c>
-      <c r="E147">
+      <c r="H147">
         <v>-0.6821335554122925</v>
       </c>
-      <c r="F147">
+      <c r="I147">
         <v>-0.05420723557472229</v>
       </c>
-      <c r="G147">
-        <v>0.2109974771738052</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="J147">
+        <v>-0.01272487640380859</v>
+      </c>
+      <c r="K147">
+        <v>-0.2364692091941833</v>
+      </c>
+      <c r="L147">
+        <v>-0.6099873781204224</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -4231,22 +6448,37 @@
         <v>-0.003212252631783485</v>
       </c>
       <c r="C148">
+        <v>-0.1106401160359383</v>
+      </c>
+      <c r="D148">
+        <v>-0.06060994789004326</v>
+      </c>
+      <c r="E148">
+        <v>-0.2293757647275925</v>
+      </c>
+      <c r="F148">
         <v>0.002264647511765361</v>
       </c>
-      <c r="D148">
+      <c r="G148">
         <v>0.001436136313714087</v>
       </c>
-      <c r="E148">
+      <c r="H148">
         <v>-0.7369864583015442</v>
       </c>
-      <c r="F148">
+      <c r="I148">
         <v>-0.0484766811132431</v>
       </c>
-      <c r="G148">
-        <v>-0.008960452862083912</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="J148">
+        <v>0.001436136313714087</v>
+      </c>
+      <c r="K148">
+        <v>-0.1070991083979607</v>
+      </c>
+      <c r="L148">
+        <v>-0.4947393238544464</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -4254,22 +6486,37 @@
         <v>-0.08963031321763992</v>
       </c>
       <c r="C149">
+        <v>-0.09933506697416306</v>
+      </c>
+      <c r="D149">
+        <v>-0.02763120830059052</v>
+      </c>
+      <c r="E149">
+        <v>-0.2775920927524567</v>
+      </c>
+      <c r="F149">
         <v>4.083638123120181E-05</v>
       </c>
-      <c r="D149">
+      <c r="G149">
         <v>0.001417228602804244</v>
       </c>
-      <c r="E149">
+      <c r="H149">
         <v>-0.5762197375297546</v>
       </c>
-      <c r="F149">
+      <c r="I149">
         <v>-0.04557982087135315</v>
       </c>
-      <c r="G149">
-        <v>0.2119496017694473</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="J149">
+        <v>0.001417228602804244</v>
+      </c>
+      <c r="K149">
+        <v>-0.1713317483663559</v>
+      </c>
+      <c r="L149">
+        <v>-0.2149416506290436</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
@@ -4277,22 +6524,37 @@
         <v>0.004071194212883711</v>
       </c>
       <c r="C150">
+        <v>-0.1720246225595474</v>
+      </c>
+      <c r="D150">
+        <v>-0.04436874762177467</v>
+      </c>
+      <c r="E150">
+        <v>-0.1991163641214371</v>
+      </c>
+      <c r="F150">
         <v>-0.06031599640846252</v>
       </c>
-      <c r="D150">
+      <c r="G150">
         <v>-0.03245989978313446</v>
       </c>
-      <c r="E150">
+      <c r="H150">
         <v>-0.2288185954093933</v>
       </c>
-      <c r="F150">
+      <c r="I150">
         <v>-0.04657736420631409</v>
       </c>
-      <c r="G150">
-        <v>0.0113047743216157</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="J150">
+        <v>-0.03245989978313446</v>
+      </c>
+      <c r="K150">
+        <v>-0.1262309104204178</v>
+      </c>
+      <c r="L150">
+        <v>0.1573115885257721</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
@@ -4300,19 +6562,34 @@
         <v>0.064982570707798</v>
       </c>
       <c r="C151">
+        <v>-0.1592429578304291</v>
+      </c>
+      <c r="D151">
+        <v>-0.0133700892329216</v>
+      </c>
+      <c r="E151">
+        <v>-0.2299885004758835</v>
+      </c>
+      <c r="F151">
         <v>0.2071525901556015</v>
       </c>
-      <c r="D151">
+      <c r="G151">
         <v>-0.003883629804477096</v>
       </c>
-      <c r="E151">
+      <c r="H151">
         <v>-0.7864481806755066</v>
       </c>
-      <c r="F151">
+      <c r="I151">
         <v>-0.07318757474422455</v>
       </c>
-      <c r="G151">
-        <v>0.2970273196697235</v>
+      <c r="J151">
+        <v>-0.003883629804477096</v>
+      </c>
+      <c r="K151">
+        <v>-0.1150331571698189</v>
+      </c>
+      <c r="L151">
+        <v>-0.6771520972251892</v>
       </c>
     </row>
   </sheetData>
